--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -19,13 +19,13 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$F$1:$F$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="patientsex">'cv_sample'!$T$1:$T$3</definedName>
     <definedName name="patienttumortype">'cv_sample'!$M$1:$M$4</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="samplematerial">'cv_sample'!$I$1:$I$7</definedName>
     <definedName name="sampleorigin">'cv_sample'!$G$1:$G$7</definedName>
     <definedName name="sampletaxonname">'cv_sample'!$H$1:$H$2</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="606">
   <si>
     <t>alias</t>
   </si>
@@ -456,6 +456,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -555,6 +567,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -672,6 +702,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -679,6 +712,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2354,10 +2390,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2398,10 +2434,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2464,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2448,7 +2484,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2465,7 +2501,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2482,7 +2518,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2499,7 +2535,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2516,7 +2552,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2533,7 +2569,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2550,7 +2586,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2567,7 +2603,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2584,7 +2620,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2598,7 +2634,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2612,7 +2648,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2626,7 +2662,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2640,7 +2676,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2650,8 +2686,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2661,8 +2700,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2672,8 +2714,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2683,8 +2728,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2695,7 +2743,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2706,7 +2754,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2717,7 +2765,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2728,7 +2776,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2739,7 +2787,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2750,7 +2798,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2761,7 +2809,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2772,7 +2820,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2783,7 +2831,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2794,7 +2842,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2805,7 +2853,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2816,7 +2864,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2827,7 +2875,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2838,7 +2886,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2846,7 +2894,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2854,7 +2902,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2862,7 +2910,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2870,7 +2918,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2878,7 +2926,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2886,7 +2934,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2894,7 +2942,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2902,7 +2950,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2910,7 +2958,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2918,176 +2966,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3112,27 +3200,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3155,122 +3243,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3297,120 +3385,120 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -3451,1515 +3539,1515 @@
   <sheetData>
     <row r="1" spans="6:20">
       <c r="F1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="H1" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="I1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="M1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="S1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="T1" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="6:20">
       <c r="F2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="H2" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="I2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="M2" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="S2" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="T2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="6:20">
       <c r="F3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G3" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="I3" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="M3" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="S3" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="T3" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="6:20">
       <c r="F4" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G4" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="I4" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M4" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="6:20">
       <c r="F5" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="G5" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="I5" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="6:20">
       <c r="F6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="I6" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="6:20">
       <c r="F7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="I7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="6:20">
       <c r="F8" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="6:20">
       <c r="F9" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="6:20">
       <c r="F10" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="6:20">
       <c r="F11" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="6:20">
       <c r="F12" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="6:20">
       <c r="F13" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="6:20">
       <c r="F14" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="6:20">
       <c r="F15" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="6:20">
       <c r="F16" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="6:6">
       <c r="F23" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="6:6">
       <c r="F27" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="6:6">
       <c r="F36" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="6:6">
       <c r="F108" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="6:6">
       <c r="F111" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="6:6">
       <c r="F116" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="6:6">
       <c r="F121" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="6:6">
       <c r="F122" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="6:6">
       <c r="F123" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="124" spans="6:6">
       <c r="F124" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="125" spans="6:6">
       <c r="F125" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="6:6">
       <c r="F126" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="127" spans="6:6">
       <c r="F127" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="128" spans="6:6">
       <c r="F128" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="133" spans="6:6">
       <c r="F133" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134" spans="6:6">
       <c r="F134" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="6:6">
       <c r="F135" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="6:6">
       <c r="F136" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137" spans="6:6">
       <c r="F137" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="138" spans="6:6">
       <c r="F138" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" spans="6:6">
       <c r="F139" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="6:6">
       <c r="F140" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="141" spans="6:6">
       <c r="F141" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="142" spans="6:6">
       <c r="F142" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="143" spans="6:6">
       <c r="F143" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="144" spans="6:6">
       <c r="F144" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="145" spans="6:6">
       <c r="F145" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="6:6">
       <c r="F146" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="147" spans="6:6">
       <c r="F147" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="148" spans="6:6">
       <c r="F148" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="149" spans="6:6">
       <c r="F149" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="150" spans="6:6">
       <c r="F150" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="151" spans="6:6">
       <c r="F151" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="152" spans="6:6">
       <c r="F152" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="153" spans="6:6">
       <c r="F153" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="154" spans="6:6">
       <c r="F154" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="155" spans="6:6">
       <c r="F155" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="156" spans="6:6">
       <c r="F156" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="157" spans="6:6">
       <c r="F157" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="159" spans="6:6">
       <c r="F159" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="6:6">
       <c r="F160" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="161" spans="6:6">
       <c r="F161" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="162" spans="6:6">
       <c r="F162" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="163" spans="6:6">
       <c r="F163" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="164" spans="6:6">
       <c r="F164" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="165" spans="6:6">
       <c r="F165" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="166" spans="6:6">
       <c r="F166" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="167" spans="6:6">
       <c r="F167" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="168" spans="6:6">
       <c r="F168" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169" spans="6:6">
       <c r="F169" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="6:6">
       <c r="F170" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="171" spans="6:6">
       <c r="F171" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="172" spans="6:6">
       <c r="F172" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="173" spans="6:6">
       <c r="F173" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" spans="6:6">
       <c r="F174" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="6:6">
       <c r="F175" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="176" spans="6:6">
       <c r="F176" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="6:6">
       <c r="F177" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="6:6">
       <c r="F178" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179" spans="6:6">
       <c r="F179" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="6:6">
       <c r="F180" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="6:6">
       <c r="F181" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="6:6">
       <c r="F182" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="183" spans="6:6">
       <c r="F183" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="184" spans="6:6">
       <c r="F184" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" spans="6:6">
       <c r="F185" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="6:6">
       <c r="F186" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" spans="6:6">
       <c r="F187" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="6:6">
       <c r="F188" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="189" spans="6:6">
       <c r="F189" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="190" spans="6:6">
       <c r="F190" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="191" spans="6:6">
       <c r="F191" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="192" spans="6:6">
       <c r="F192" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="193" spans="6:6">
       <c r="F193" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="6:6">
       <c r="F194" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" spans="6:6">
       <c r="F195" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="196" spans="6:6">
       <c r="F196" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" spans="6:6">
       <c r="F197" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="198" spans="6:6">
       <c r="F198" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="199" spans="6:6">
       <c r="F199" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="6:6">
       <c r="F200" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="201" spans="6:6">
       <c r="F201" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="6:6">
       <c r="F202" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="203" spans="6:6">
       <c r="F203" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="204" spans="6:6">
       <c r="F204" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="205" spans="6:6">
       <c r="F205" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206" spans="6:6">
       <c r="F206" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="207" spans="6:6">
       <c r="F207" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="208" spans="6:6">
       <c r="F208" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="209" spans="6:6">
       <c r="F209" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="210" spans="6:6">
       <c r="F210" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="211" spans="6:6">
       <c r="F211" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="212" spans="6:6">
       <c r="F212" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="213" spans="6:6">
       <c r="F213" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="214" spans="6:6">
       <c r="F214" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="215" spans="6:6">
       <c r="F215" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="216" spans="6:6">
       <c r="F216" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="217" spans="6:6">
       <c r="F217" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="218" spans="6:6">
       <c r="F218" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="219" spans="6:6">
       <c r="F219" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="220" spans="6:6">
       <c r="F220" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="221" spans="6:6">
       <c r="F221" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="222" spans="6:6">
       <c r="F222" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="223" spans="6:6">
       <c r="F223" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="224" spans="6:6">
       <c r="F224" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="225" spans="6:6">
       <c r="F225" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="226" spans="6:6">
       <c r="F226" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="227" spans="6:6">
       <c r="F227" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="228" spans="6:6">
       <c r="F228" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="229" spans="6:6">
       <c r="F229" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="230" spans="6:6">
       <c r="F230" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="231" spans="6:6">
       <c r="F231" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="232" spans="6:6">
       <c r="F232" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="233" spans="6:6">
       <c r="F233" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="234" spans="6:6">
       <c r="F234" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="235" spans="6:6">
       <c r="F235" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="236" spans="6:6">
       <c r="F236" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="237" spans="6:6">
       <c r="F237" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="238" spans="6:6">
       <c r="F238" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="239" spans="6:6">
       <c r="F239" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="240" spans="6:6">
       <c r="F240" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="241" spans="6:6">
       <c r="F241" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="242" spans="6:6">
       <c r="F242" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="243" spans="6:6">
       <c r="F243" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="244" spans="6:6">
       <c r="F244" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="245" spans="6:6">
       <c r="F245" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="246" spans="6:6">
       <c r="F246" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="247" spans="6:6">
       <c r="F247" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="248" spans="6:6">
       <c r="F248" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="249" spans="6:6">
       <c r="F249" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="250" spans="6:6">
       <c r="F250" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="251" spans="6:6">
       <c r="F251" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="252" spans="6:6">
       <c r="F252" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="253" spans="6:6">
       <c r="F253" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="254" spans="6:6">
       <c r="F254" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="255" spans="6:6">
       <c r="F255" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="256" spans="6:6">
       <c r="F256" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="257" spans="6:6">
       <c r="F257" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="258" spans="6:6">
       <c r="F258" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="259" spans="6:6">
       <c r="F259" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="260" spans="6:6">
       <c r="F260" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="261" spans="6:6">
       <c r="F261" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="262" spans="6:6">
       <c r="F262" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="263" spans="6:6">
       <c r="F263" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="264" spans="6:6">
       <c r="F264" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="265" spans="6:6">
       <c r="F265" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="266" spans="6:6">
       <c r="F266" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="267" spans="6:6">
       <c r="F267" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="268" spans="6:6">
       <c r="F268" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="269" spans="6:6">
       <c r="F269" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="270" spans="6:6">
       <c r="F270" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="271" spans="6:6">
       <c r="F271" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="272" spans="6:6">
       <c r="F272" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="273" spans="6:6">
       <c r="F273" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="274" spans="6:6">
       <c r="F274" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="275" spans="6:6">
       <c r="F275" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="276" spans="6:6">
       <c r="F276" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="277" spans="6:6">
       <c r="F277" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="278" spans="6:6">
       <c r="F278" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="279" spans="6:6">
       <c r="F279" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="280" spans="6:6">
       <c r="F280" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="281" spans="6:6">
       <c r="F281" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="282" spans="6:6">
       <c r="F282" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="283" spans="6:6">
       <c r="F283" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="284" spans="6:6">
       <c r="F284" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="285" spans="6:6">
       <c r="F285" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="286" spans="6:6">
       <c r="F286" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="287" spans="6:6">
       <c r="F287" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -105,7 +105,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -18,17 +18,17 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$F$1:$F$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="patientsex">'cv_sample'!$T$1:$T$3</definedName>
-    <definedName name="patienttumortype">'cv_sample'!$M$1:$M$4</definedName>
+    <definedName name="patienttumortype">'cv_sample'!$I$1:$I$4</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="samplematerial">'cv_sample'!$I$1:$I$7</definedName>
-    <definedName name="sampleorigin">'cv_sample'!$G$1:$G$7</definedName>
-    <definedName name="sampletaxonname">'cv_sample'!$H$1:$H$2</definedName>
+    <definedName name="samplematerial">'cv_sample'!$F$1:$F$7</definedName>
+    <definedName name="sampleorigin">'cv_sample'!$E$1:$E$7</definedName>
+    <definedName name="sampletaxonname">'cv_sample'!$G$1:$G$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
     <definedName name="wasthePDXmodelhumanised">'cv_sample'!$S$1:$S$3</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="607">
   <si>
     <t>alias</t>
   </si>
@@ -834,6 +834,90 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
+    <t>Engrafted tumor</t>
+  </si>
+  <si>
+    <t>Patient derived cell culture</t>
+  </si>
+  <si>
+    <t>Patient tumor</t>
+  </si>
+  <si>
+    <t>Xenograft derived cell culture</t>
+  </si>
+  <si>
+    <t>Xenograft derived cell line</t>
+  </si>
+  <si>
+    <t>Xenograft derived organoid</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>sample origin</t>
+  </si>
+  <si>
+    <t>(Mandatory) Sample origin from which data deposited was generated, e.g. engrafted tumor</t>
+  </si>
+  <si>
+    <t>bone marrow aspirate</t>
+  </si>
+  <si>
+    <t>cell suspension</t>
+  </si>
+  <si>
+    <t>malignant effusion</t>
+  </si>
+  <si>
+    <t>organoid</t>
+  </si>
+  <si>
+    <t>peripheral blood</t>
+  </si>
+  <si>
+    <t>tissue fragment</t>
+  </si>
+  <si>
+    <t>sample material</t>
+  </si>
+  <si>
+    <t>(Mandatory) Sample material from which data deposited was generated, e.g. tissue fragment. if unknown please select "not provided".</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>Homo sapiens/Mus musculus xenograft</t>
+  </si>
+  <si>
+    <t>sample taxon name</t>
+  </si>
+  <si>
+    <t>(Mandatory) This field indicates if a sample is derived from a patient or xenograft. the following two options are available: homo sapiens/mus musculus xenograft (sample is from a xenograft derived tumor/cell culture) or homo sapiens (sample is from a patient tumor/cell culture). please ensure the selected value here is identical to the value in the 'scientific name' column/field.</t>
+  </si>
+  <si>
+    <t>sample unique ID</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identifier of the pdx or tumor sample, e.g. crc00003</t>
+  </si>
+  <si>
+    <t>Metastatic Neoplasm</t>
+  </si>
+  <si>
+    <t>Primary Neoplasm</t>
+  </si>
+  <si>
+    <t>Recurrent Neoplasm</t>
+  </si>
+  <si>
+    <t>patient tumor type</t>
+  </si>
+  <si>
+    <t>(Mandatory) For a primary sample (a tumor at the original site of origin), please select “primary neoplasm” . for a metastatic sample (a tumor that has spread from its original (primary) site of growth to another site, close to or distant from the primary site), please select “metastatic neoplasm” . for a recurring neoplasm sample (neoplasm returning after a period of remission at the same location), please select “recurrent neoplasm” . if unknown tumor type, please select “not provided”.</t>
+  </si>
+  <si>
     <t>collection date</t>
   </si>
   <si>
@@ -1035,6 +1119,9 @@
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -1695,76 +1782,13 @@
     <t>not collected</t>
   </si>
   <si>
-    <t>not provided</t>
-  </si>
-  <si>
     <t>restricted access</t>
   </si>
   <si>
     <t>geographic location (country and/or sea)</t>
   </si>
   <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>Engrafted tumor</t>
-  </si>
-  <si>
-    <t>Patient derived cell culture</t>
-  </si>
-  <si>
-    <t>Patient tumor</t>
-  </si>
-  <si>
-    <t>Xenograft derived cell culture</t>
-  </si>
-  <si>
-    <t>Xenograft derived cell line</t>
-  </si>
-  <si>
-    <t>Xenograft derived organoid</t>
-  </si>
-  <si>
-    <t>sample origin</t>
-  </si>
-  <si>
-    <t>(Mandatory) Sample origin from which data deposited was generated, e.g. engrafted tumor</t>
-  </si>
-  <si>
-    <t>Homo sapiens</t>
-  </si>
-  <si>
-    <t>Homo sapiens/Mus musculus xenograft</t>
-  </si>
-  <si>
-    <t>sample taxon name</t>
-  </si>
-  <si>
-    <t>(Mandatory) This field indicates if a sample is derived from a patient or xenograft. the following two options are available: homo sapiens/mus musculus xenograft (sample is from a xenograft derived tumor/cell culture) or homo sapiens (sample is from a patient tumor/cell culture). please ensure the selected value here is identical to the value in the 'scientific name' column/field.</t>
-  </si>
-  <si>
-    <t>bone marrow aspirate</t>
-  </si>
-  <si>
-    <t>cell suspension</t>
-  </si>
-  <si>
-    <t>malignant effusion</t>
-  </si>
-  <si>
-    <t>organoid</t>
-  </si>
-  <si>
-    <t>peripheral blood</t>
-  </si>
-  <si>
-    <t>tissue fragment</t>
-  </si>
-  <si>
-    <t>sample material</t>
-  </si>
-  <si>
-    <t>(Mandatory) Sample material from which data deposited was generated, e.g. tissue fragment. if unknown please select "not provided".</t>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
     <t>engrafted tumor sample passage</t>
@@ -1783,27 +1807,6 @@
   </si>
   <si>
     <t>(Mandatory) Site of collection of the patient tissue sample which was extracted (can be different to primary site if it is a metastatic sample). please use ncit ontology, e.g. liver (http://purl.obolibrary.org/obo/ncit_c12392). if unknown please select ncit term: “not available” (http://purl.obolibrary.org/obo/ncit_c126101)</t>
-  </si>
-  <si>
-    <t>Metastatic Neoplasm</t>
-  </si>
-  <si>
-    <t>Primary Neoplasm</t>
-  </si>
-  <si>
-    <t>Recurrent Neoplasm</t>
-  </si>
-  <si>
-    <t>patient tumor type</t>
-  </si>
-  <si>
-    <t>(Mandatory) For a primary sample (a tumor at the original site of origin), please select “primary neoplasm” . for a metastatic sample (a tumor that has spread from its original (primary) site of growth to another site, close to or distant from the primary site), please select “metastatic neoplasm” . for a recurring neoplasm sample (neoplasm returning after a period of remission at the same location), please select “recurrent neoplasm” . if unknown tumor type, please select “not provided”.</t>
-  </si>
-  <si>
-    <t>sample unique ID</t>
-  </si>
-  <si>
-    <t>(Mandatory) Unique identifier of the pdx or tumor sample, e.g. crc00003</t>
   </si>
   <si>
     <t>engraftment host strain name</t>
@@ -3391,52 +3394,52 @@
         <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>554</v>
+        <v>280</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>562</v>
+        <v>284</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>566</v>
+        <v>286</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>574</v>
+        <v>291</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>576</v>
+        <v>293</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="150" customHeight="1">
@@ -3453,70 +3456,70 @@
         <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>555</v>
+        <v>281</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>563</v>
+        <v>285</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>567</v>
+        <v>287</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>575</v>
+        <v>292</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>577</v>
+        <v>294</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+      <formula1>sampleorigin</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
-      <formula1>geographiclocationcountryandorsea</formula1>
+      <formula1>samplematerial</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
-      <formula1>sampleorigin</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>sampletaxonname</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
-      <formula1>samplematerial</formula1>
+      <formula1>patienttumortype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
-      <formula1>patienttumortype</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
+      <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
       <formula1>wasthePDXmodelhumanised</formula1>
@@ -3531,1523 +3534,1528 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:T287"/>
+  <dimension ref="E1:T288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="6:20">
+    <row r="1" spans="5:20">
+      <c r="E1" t="s">
+        <v>265</v>
+      </c>
       <c r="F1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" t="s">
+        <v>295</v>
+      </c>
+      <c r="S1" t="s">
+        <v>598</v>
+      </c>
+      <c r="T1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="5:20">
+      <c r="E2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K2" t="s">
+        <v>296</v>
+      </c>
+      <c r="S2" t="s">
+        <v>599</v>
+      </c>
+      <c r="T2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="5:20">
+      <c r="E3" t="s">
         <v>267</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K3" t="s">
+        <v>297</v>
+      </c>
+      <c r="S3" t="s">
+        <v>579</v>
+      </c>
+      <c r="T3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="5:20">
+      <c r="E4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="5:20">
+      <c r="E5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" t="s">
+        <v>277</v>
+      </c>
+      <c r="K5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="5:20">
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" t="s">
+        <v>278</v>
+      </c>
+      <c r="K6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="5:20">
+      <c r="E7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="5:20">
+      <c r="K8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="5:20">
+      <c r="K9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="5:20">
+      <c r="K10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="5:20">
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="5:20">
+      <c r="K12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="5:20">
+      <c r="K13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="5:20">
+      <c r="K14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="5:20">
+      <c r="K15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="5:20">
+      <c r="K16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11">
+      <c r="K23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="11:11">
+      <c r="K24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="11:11">
+      <c r="K26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="11:11">
+      <c r="K27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="11:11">
+      <c r="K28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="11:11">
+      <c r="K29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="11:11">
+      <c r="K30" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="11:11">
+      <c r="K31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="11:11">
+      <c r="K32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11">
+      <c r="K33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11">
+      <c r="K34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="11:11">
+      <c r="K35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="11:11">
+      <c r="K36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="11:11">
+      <c r="K37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="11:11">
+      <c r="K38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="11:11">
+      <c r="K39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="11:11">
+      <c r="K40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="11:11">
+      <c r="K41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="11:11">
+      <c r="K42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="11:11">
+      <c r="K43" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44" spans="11:11">
+      <c r="K44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="11:11">
+      <c r="K45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="11:11">
+      <c r="K46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="11:11">
+      <c r="K47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="11:11">
+      <c r="K48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11">
+      <c r="K49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11">
+      <c r="K50" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11">
+      <c r="K51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11">
+      <c r="K52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="11:11">
+      <c r="K53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="11:11">
+      <c r="K54" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="11:11">
+      <c r="K55" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="11:11">
+      <c r="K56" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="11:11">
+      <c r="K57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="11:11">
+      <c r="K58" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="11:11">
+      <c r="K59" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="11:11">
+      <c r="K60" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" spans="11:11">
+      <c r="K61" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="11:11">
+      <c r="K62" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="11:11">
+      <c r="K63" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="64" spans="11:11">
+      <c r="K64" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="11:11">
+      <c r="K65" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="11:11">
+      <c r="K66" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="11:11">
+      <c r="K67" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="11:11">
+      <c r="K68" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="11:11">
+      <c r="K69" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" spans="11:11">
+      <c r="K70" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="71" spans="11:11">
+      <c r="K71" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="11:11">
+      <c r="K72" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="73" spans="11:11">
+      <c r="K73" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="11:11">
+      <c r="K74" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="11:11">
+      <c r="K75" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="76" spans="11:11">
+      <c r="K76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="11:11">
+      <c r="K77" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="11:11">
+      <c r="K78" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="79" spans="11:11">
+      <c r="K79" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="80" spans="11:11">
+      <c r="K80" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="81" spans="11:11">
+      <c r="K81" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="82" spans="11:11">
+      <c r="K82" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="83" spans="11:11">
+      <c r="K83" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="84" spans="11:11">
+      <c r="K84" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="85" spans="11:11">
+      <c r="K85" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="86" spans="11:11">
+      <c r="K86" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="87" spans="11:11">
+      <c r="K87" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88" spans="11:11">
+      <c r="K88" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="11:11">
+      <c r="K89" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="11:11">
+      <c r="K90" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="11:11">
+      <c r="K91" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="92" spans="11:11">
+      <c r="K92" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="93" spans="11:11">
+      <c r="K93" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="94" spans="11:11">
+      <c r="K94" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="95" spans="11:11">
+      <c r="K95" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="11:11">
+      <c r="K96" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" spans="11:11">
+      <c r="K97" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="99" spans="11:11">
+      <c r="K99" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="100" spans="11:11">
+      <c r="K100" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="103" spans="11:11">
+      <c r="K103" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="104" spans="11:11">
+      <c r="K104" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="11:11">
+      <c r="K105" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="106" spans="11:11">
+      <c r="K106" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="11:11">
+      <c r="K107" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="108" spans="11:11">
+      <c r="K108" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="109" spans="11:11">
+      <c r="K109" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="110" spans="11:11">
+      <c r="K110" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="111" spans="11:11">
+      <c r="K111" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="11:11">
+      <c r="K112" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="113" spans="11:11">
+      <c r="K113" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="114" spans="11:11">
+      <c r="K114" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="115" spans="11:11">
+      <c r="K115" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="116" spans="11:11">
+      <c r="K116" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="117" spans="11:11">
+      <c r="K117" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="118" spans="11:11">
+      <c r="K118" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="11:11">
+      <c r="K119" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="120" spans="11:11">
+      <c r="K120" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" spans="11:11">
+      <c r="K121" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="122" spans="11:11">
+      <c r="K122" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="123" spans="11:11">
+      <c r="K123" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="124" spans="11:11">
+      <c r="K124" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="125" spans="11:11">
+      <c r="K125" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="126" spans="11:11">
+      <c r="K126" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="127" spans="11:11">
+      <c r="K127" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="128" spans="11:11">
+      <c r="K128" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="129" spans="11:11">
+      <c r="K129" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="130" spans="11:11">
+      <c r="K130" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="131" spans="11:11">
+      <c r="K131" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="132" spans="11:11">
+      <c r="K132" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="133" spans="11:11">
+      <c r="K133" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="134" spans="11:11">
+      <c r="K134" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="135" spans="11:11">
+      <c r="K135" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="136" spans="11:11">
+      <c r="K136" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="137" spans="11:11">
+      <c r="K137" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="138" spans="11:11">
+      <c r="K138" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="139" spans="11:11">
+      <c r="K139" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="140" spans="11:11">
+      <c r="K140" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="141" spans="11:11">
+      <c r="K141" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="142" spans="11:11">
+      <c r="K142" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="143" spans="11:11">
+      <c r="K143" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="144" spans="11:11">
+      <c r="K144" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="145" spans="11:11">
+      <c r="K145" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="146" spans="11:11">
+      <c r="K146" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="147" spans="11:11">
+      <c r="K147" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="148" spans="11:11">
+      <c r="K148" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="149" spans="11:11">
+      <c r="K149" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="150" spans="11:11">
+      <c r="K150" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="151" spans="11:11">
+      <c r="K151" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="152" spans="11:11">
+      <c r="K152" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="153" spans="11:11">
+      <c r="K153" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="154" spans="11:11">
+      <c r="K154" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="155" spans="11:11">
+      <c r="K155" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="156" spans="11:11">
+      <c r="K156" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="157" spans="11:11">
+      <c r="K157" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="158" spans="11:11">
+      <c r="K158" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="159" spans="11:11">
+      <c r="K159" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="160" spans="11:11">
+      <c r="K160" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="161" spans="11:11">
+      <c r="K161" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="162" spans="11:11">
+      <c r="K162" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="163" spans="11:11">
+      <c r="K163" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="164" spans="11:11">
+      <c r="K164" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="165" spans="11:11">
+      <c r="K165" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="166" spans="11:11">
+      <c r="K166" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="167" spans="11:11">
+      <c r="K167" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="168" spans="11:11">
+      <c r="K168" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="169" spans="11:11">
+      <c r="K169" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="170" spans="11:11">
+      <c r="K170" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="171" spans="11:11">
+      <c r="K171" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="172" spans="11:11">
+      <c r="K172" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="173" spans="11:11">
+      <c r="K173" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="174" spans="11:11">
+      <c r="K174" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="175" spans="11:11">
+      <c r="K175" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="176" spans="11:11">
+      <c r="K176" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="177" spans="11:11">
+      <c r="K177" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="178" spans="11:11">
+      <c r="K178" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="179" spans="11:11">
+      <c r="K179" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="180" spans="11:11">
+      <c r="K180" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="181" spans="11:11">
+      <c r="K181" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="182" spans="11:11">
+      <c r="K182" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="183" spans="11:11">
+      <c r="K183" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="184" spans="11:11">
+      <c r="K184" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="185" spans="11:11">
+      <c r="K185" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="186" spans="11:11">
+      <c r="K186" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="187" spans="11:11">
+      <c r="K187" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="188" spans="11:11">
+      <c r="K188" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="189" spans="11:11">
+      <c r="K189" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="190" spans="11:11">
+      <c r="K190" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="191" spans="11:11">
+      <c r="K191" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="192" spans="11:11">
+      <c r="K192" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="193" spans="11:11">
+      <c r="K193" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="194" spans="11:11">
+      <c r="K194" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="195" spans="11:11">
+      <c r="K195" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="196" spans="11:11">
+      <c r="K196" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="197" spans="11:11">
+      <c r="K197" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="198" spans="11:11">
+      <c r="K198" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="199" spans="11:11">
+      <c r="K199" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="200" spans="11:11">
+      <c r="K200" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="201" spans="11:11">
+      <c r="K201" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="202" spans="11:11">
+      <c r="K202" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="203" spans="11:11">
+      <c r="K203" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="204" spans="11:11">
+      <c r="K204" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="205" spans="11:11">
+      <c r="K205" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="206" spans="11:11">
+      <c r="K206" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" spans="11:11">
+      <c r="K207" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="208" spans="11:11">
+      <c r="K208" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="209" spans="11:11">
+      <c r="K209" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="210" spans="11:11">
+      <c r="K210" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="211" spans="11:11">
+      <c r="K211" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="212" spans="11:11">
+      <c r="K212" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="213" spans="11:11">
+      <c r="K213" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="214" spans="11:11">
+      <c r="K214" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="215" spans="11:11">
+      <c r="K215" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="216" spans="11:11">
+      <c r="K216" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="217" spans="11:11">
+      <c r="K217" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="218" spans="11:11">
+      <c r="K218" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="219" spans="11:11">
+      <c r="K219" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="220" spans="11:11">
+      <c r="K220" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="221" spans="11:11">
+      <c r="K221" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="222" spans="11:11">
+      <c r="K222" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="223" spans="11:11">
+      <c r="K223" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="224" spans="11:11">
+      <c r="K224" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="225" spans="11:11">
+      <c r="K225" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="226" spans="11:11">
+      <c r="K226" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="227" spans="11:11">
+      <c r="K227" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="228" spans="11:11">
+      <c r="K228" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="229" spans="11:11">
+      <c r="K229" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="230" spans="11:11">
+      <c r="K230" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="231" spans="11:11">
+      <c r="K231" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="232" spans="11:11">
+      <c r="K232" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="233" spans="11:11">
+      <c r="K233" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="234" spans="11:11">
+      <c r="K234" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="235" spans="11:11">
+      <c r="K235" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="236" spans="11:11">
+      <c r="K236" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="237" spans="11:11">
+      <c r="K237" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="238" spans="11:11">
+      <c r="K238" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="239" spans="11:11">
+      <c r="K239" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="240" spans="11:11">
+      <c r="K240" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="241" spans="11:11">
+      <c r="K241" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="242" spans="11:11">
+      <c r="K242" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="243" spans="11:11">
+      <c r="K243" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="244" spans="11:11">
+      <c r="K244" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="245" spans="11:11">
+      <c r="K245" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="246" spans="11:11">
+      <c r="K246" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="247" spans="11:11">
+      <c r="K247" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="248" spans="11:11">
+      <c r="K248" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="249" spans="11:11">
+      <c r="K249" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="250" spans="11:11">
+      <c r="K250" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="251" spans="11:11">
+      <c r="K251" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="252" spans="11:11">
+      <c r="K252" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="253" spans="11:11">
+      <c r="K253" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="254" spans="11:11">
+      <c r="K254" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="255" spans="11:11">
+      <c r="K255" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="256" spans="11:11">
+      <c r="K256" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="257" spans="11:11">
+      <c r="K257" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="258" spans="11:11">
+      <c r="K258" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="259" spans="11:11">
+      <c r="K259" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="260" spans="11:11">
+      <c r="K260" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="261" spans="11:11">
+      <c r="K261" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="262" spans="11:11">
+      <c r="K262" t="s">
         <v>556</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="263" spans="11:11">
+      <c r="K263" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="264" spans="11:11">
+      <c r="K264" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="265" spans="11:11">
+      <c r="K265" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="266" spans="11:11">
+      <c r="K266" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="267" spans="11:11">
+      <c r="K267" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="268" spans="11:11">
+      <c r="K268" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="269" spans="11:11">
+      <c r="K269" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="270" spans="11:11">
+      <c r="K270" t="s">
         <v>564</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="271" spans="11:11">
+      <c r="K271" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="272" spans="11:11">
+      <c r="K272" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="273" spans="11:11">
+      <c r="K273" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="274" spans="11:11">
+      <c r="K274" t="s">
         <v>568</v>
       </c>
-      <c r="M1" t="s">
-        <v>582</v>
-      </c>
-      <c r="S1" t="s">
-        <v>597</v>
-      </c>
-      <c r="T1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="2" spans="6:20">
-      <c r="F2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" t="s">
-        <v>557</v>
-      </c>
-      <c r="H2" t="s">
-        <v>565</v>
-      </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="275" spans="11:11">
+      <c r="K275" t="s">
         <v>569</v>
       </c>
-      <c r="M2" t="s">
-        <v>583</v>
-      </c>
-      <c r="S2" t="s">
-        <v>598</v>
-      </c>
-      <c r="T2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="3" spans="6:20">
-      <c r="F3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G3" t="s">
-        <v>558</v>
-      </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="276" spans="11:11">
+      <c r="K276" t="s">
         <v>570</v>
       </c>
-      <c r="M3" t="s">
-        <v>584</v>
-      </c>
-      <c r="S3" t="s">
-        <v>550</v>
-      </c>
-      <c r="T3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="4" spans="6:20">
-      <c r="F4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" t="s">
-        <v>559</v>
-      </c>
-      <c r="I4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="5" spans="6:20">
-      <c r="F5" t="s">
+    </row>
+    <row r="277" spans="11:11">
+      <c r="K277" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="278" spans="11:11">
+      <c r="K278" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="279" spans="11:11">
+      <c r="K279" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="280" spans="11:11">
+      <c r="K280" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="281" spans="11:11">
+      <c r="K281" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="282" spans="11:11">
+      <c r="K282" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="283" spans="11:11">
+      <c r="K283" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="284" spans="11:11">
+      <c r="K284" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="285" spans="11:11">
+      <c r="K285" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="286" spans="11:11">
+      <c r="K286" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="287" spans="11:11">
+      <c r="K287" t="s">
         <v>271</v>
       </c>
-      <c r="G5" t="s">
-        <v>560</v>
-      </c>
-      <c r="I5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="6" spans="6:20">
-      <c r="F6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G6" t="s">
-        <v>561</v>
-      </c>
-      <c r="I6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="7" spans="6:20">
-      <c r="F7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" t="s">
-        <v>552</v>
-      </c>
-      <c r="I7" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="8" spans="6:20">
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="6:20">
-      <c r="F9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="6:20">
-      <c r="F10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="6:20">
-      <c r="F11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="6:20">
-      <c r="F12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="6:20">
-      <c r="F13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="6:20">
-      <c r="F14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="6:20">
-      <c r="F15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="6:20">
-      <c r="F16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6">
-      <c r="F24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6">
-      <c r="F29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="6:6">
-      <c r="F47" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="6:6">
-      <c r="F48" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6">
-      <c r="F49" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6">
-      <c r="F50" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6">
-      <c r="F51" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6">
-      <c r="F52" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6">
-      <c r="F53" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6">
-      <c r="F54" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="55" spans="6:6">
-      <c r="F55" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="56" spans="6:6">
-      <c r="F56" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="57" spans="6:6">
-      <c r="F57" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6">
-      <c r="F58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="59" spans="6:6">
-      <c r="F59" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6">
-      <c r="F60" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="61" spans="6:6">
-      <c r="F61" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="62" spans="6:6">
-      <c r="F62" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="6:6">
-      <c r="F63" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="64" spans="6:6">
-      <c r="F64" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6">
-      <c r="F66" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6">
-      <c r="F67" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6">
-      <c r="F68" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="69" spans="6:6">
-      <c r="F69" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6">
-      <c r="F70" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="71" spans="6:6">
-      <c r="F71" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="72" spans="6:6">
-      <c r="F72" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="73" spans="6:6">
-      <c r="F73" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="74" spans="6:6">
-      <c r="F74" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6">
-      <c r="F75" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="76" spans="6:6">
-      <c r="F76" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="77" spans="6:6">
-      <c r="F77" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="6:6">
-      <c r="F78" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6">
-      <c r="F79" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="80" spans="6:6">
-      <c r="F80" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6">
-      <c r="F81" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6">
-      <c r="F83" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="84" spans="6:6">
-      <c r="F84" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="85" spans="6:6">
-      <c r="F85" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="86" spans="6:6">
-      <c r="F86" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="87" spans="6:6">
-      <c r="F87" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="88" spans="6:6">
-      <c r="F88" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="89" spans="6:6">
-      <c r="F89" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="90" spans="6:6">
-      <c r="F90" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="91" spans="6:6">
-      <c r="F91" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="92" spans="6:6">
-      <c r="F92" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="93" spans="6:6">
-      <c r="F93" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="94" spans="6:6">
-      <c r="F94" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="95" spans="6:6">
-      <c r="F95" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="96" spans="6:6">
-      <c r="F96" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="97" spans="6:6">
-      <c r="F97" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="98" spans="6:6">
-      <c r="F98" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="99" spans="6:6">
-      <c r="F99" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="100" spans="6:6">
-      <c r="F100" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="101" spans="6:6">
-      <c r="F101" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="102" spans="6:6">
-      <c r="F102" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="103" spans="6:6">
-      <c r="F103" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="104" spans="6:6">
-      <c r="F104" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="105" spans="6:6">
-      <c r="F105" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="106" spans="6:6">
-      <c r="F106" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="107" spans="6:6">
-      <c r="F107" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="108" spans="6:6">
-      <c r="F108" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="109" spans="6:6">
-      <c r="F109" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="110" spans="6:6">
-      <c r="F110" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="111" spans="6:6">
-      <c r="F111" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="112" spans="6:6">
-      <c r="F112" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="113" spans="6:6">
-      <c r="F113" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="114" spans="6:6">
-      <c r="F114" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="115" spans="6:6">
-      <c r="F115" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="116" spans="6:6">
-      <c r="F116" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="117" spans="6:6">
-      <c r="F117" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="118" spans="6:6">
-      <c r="F118" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="119" spans="6:6">
-      <c r="F119" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120" spans="6:6">
-      <c r="F120" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="121" spans="6:6">
-      <c r="F121" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="122" spans="6:6">
-      <c r="F122" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="123" spans="6:6">
-      <c r="F123" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="124" spans="6:6">
-      <c r="F124" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="125" spans="6:6">
-      <c r="F125" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="126" spans="6:6">
-      <c r="F126" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="127" spans="6:6">
-      <c r="F127" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="128" spans="6:6">
-      <c r="F128" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="129" spans="6:6">
-      <c r="F129" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="130" spans="6:6">
-      <c r="F130" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="131" spans="6:6">
-      <c r="F131" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="132" spans="6:6">
-      <c r="F132" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="133" spans="6:6">
-      <c r="F133" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="134" spans="6:6">
-      <c r="F134" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="135" spans="6:6">
-      <c r="F135" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="136" spans="6:6">
-      <c r="F136" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="137" spans="6:6">
-      <c r="F137" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="138" spans="6:6">
-      <c r="F138" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="139" spans="6:6">
-      <c r="F139" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="140" spans="6:6">
-      <c r="F140" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="141" spans="6:6">
-      <c r="F141" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="142" spans="6:6">
-      <c r="F142" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="143" spans="6:6">
-      <c r="F143" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="144" spans="6:6">
-      <c r="F144" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="145" spans="6:6">
-      <c r="F145" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="146" spans="6:6">
-      <c r="F146" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="147" spans="6:6">
-      <c r="F147" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="148" spans="6:6">
-      <c r="F148" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="149" spans="6:6">
-      <c r="F149" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="150" spans="6:6">
-      <c r="F150" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="151" spans="6:6">
-      <c r="F151" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="152" spans="6:6">
-      <c r="F152" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="153" spans="6:6">
-      <c r="F153" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="154" spans="6:6">
-      <c r="F154" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="155" spans="6:6">
-      <c r="F155" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="156" spans="6:6">
-      <c r="F156" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="157" spans="6:6">
-      <c r="F157" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="158" spans="6:6">
-      <c r="F158" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="159" spans="6:6">
-      <c r="F159" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="160" spans="6:6">
-      <c r="F160" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="161" spans="6:6">
-      <c r="F161" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="162" spans="6:6">
-      <c r="F162" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="163" spans="6:6">
-      <c r="F163" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="164" spans="6:6">
-      <c r="F164" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="165" spans="6:6">
-      <c r="F165" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="166" spans="6:6">
-      <c r="F166" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="167" spans="6:6">
-      <c r="F167" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="168" spans="6:6">
-      <c r="F168" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="169" spans="6:6">
-      <c r="F169" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="170" spans="6:6">
-      <c r="F170" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="171" spans="6:6">
-      <c r="F171" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="172" spans="6:6">
-      <c r="F172" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="173" spans="6:6">
-      <c r="F173" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="174" spans="6:6">
-      <c r="F174" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="175" spans="6:6">
-      <c r="F175" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="176" spans="6:6">
-      <c r="F176" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="177" spans="6:6">
-      <c r="F177" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="178" spans="6:6">
-      <c r="F178" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="179" spans="6:6">
-      <c r="F179" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="180" spans="6:6">
-      <c r="F180" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="181" spans="6:6">
-      <c r="F181" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="182" spans="6:6">
-      <c r="F182" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="183" spans="6:6">
-      <c r="F183" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="184" spans="6:6">
-      <c r="F184" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="185" spans="6:6">
-      <c r="F185" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="186" spans="6:6">
-      <c r="F186" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="187" spans="6:6">
-      <c r="F187" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="188" spans="6:6">
-      <c r="F188" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="189" spans="6:6">
-      <c r="F189" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="190" spans="6:6">
-      <c r="F190" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="191" spans="6:6">
-      <c r="F191" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="192" spans="6:6">
-      <c r="F192" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="193" spans="6:6">
-      <c r="F193" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="194" spans="6:6">
-      <c r="F194" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="195" spans="6:6">
-      <c r="F195" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="196" spans="6:6">
-      <c r="F196" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="197" spans="6:6">
-      <c r="F197" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="198" spans="6:6">
-      <c r="F198" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="199" spans="6:6">
-      <c r="F199" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="200" spans="6:6">
-      <c r="F200" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="201" spans="6:6">
-      <c r="F201" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="202" spans="6:6">
-      <c r="F202" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="203" spans="6:6">
-      <c r="F203" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="204" spans="6:6">
-      <c r="F204" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="205" spans="6:6">
-      <c r="F205" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="206" spans="6:6">
-      <c r="F206" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="207" spans="6:6">
-      <c r="F207" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="208" spans="6:6">
-      <c r="F208" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="209" spans="6:6">
-      <c r="F209" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="210" spans="6:6">
-      <c r="F210" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="211" spans="6:6">
-      <c r="F211" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="212" spans="6:6">
-      <c r="F212" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="213" spans="6:6">
-      <c r="F213" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="214" spans="6:6">
-      <c r="F214" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="215" spans="6:6">
-      <c r="F215" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="216" spans="6:6">
-      <c r="F216" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="217" spans="6:6">
-      <c r="F217" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="218" spans="6:6">
-      <c r="F218" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="219" spans="6:6">
-      <c r="F219" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="220" spans="6:6">
-      <c r="F220" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="221" spans="6:6">
-      <c r="F221" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="222" spans="6:6">
-      <c r="F222" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="223" spans="6:6">
-      <c r="F223" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="224" spans="6:6">
-      <c r="F224" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="225" spans="6:6">
-      <c r="F225" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="226" spans="6:6">
-      <c r="F226" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="227" spans="6:6">
-      <c r="F227" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="228" spans="6:6">
-      <c r="F228" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="229" spans="6:6">
-      <c r="F229" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="230" spans="6:6">
-      <c r="F230" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="231" spans="6:6">
-      <c r="F231" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="232" spans="6:6">
-      <c r="F232" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="233" spans="6:6">
-      <c r="F233" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="234" spans="6:6">
-      <c r="F234" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="235" spans="6:6">
-      <c r="F235" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="236" spans="6:6">
-      <c r="F236" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="237" spans="6:6">
-      <c r="F237" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="238" spans="6:6">
-      <c r="F238" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="239" spans="6:6">
-      <c r="F239" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="240" spans="6:6">
-      <c r="F240" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="241" spans="6:6">
-      <c r="F241" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="242" spans="6:6">
-      <c r="F242" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="243" spans="6:6">
-      <c r="F243" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="244" spans="6:6">
-      <c r="F244" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="245" spans="6:6">
-      <c r="F245" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="246" spans="6:6">
-      <c r="F246" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="247" spans="6:6">
-      <c r="F247" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="248" spans="6:6">
-      <c r="F248" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="249" spans="6:6">
-      <c r="F249" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="250" spans="6:6">
-      <c r="F250" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="251" spans="6:6">
-      <c r="F251" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="252" spans="6:6">
-      <c r="F252" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="253" spans="6:6">
-      <c r="F253" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="254" spans="6:6">
-      <c r="F254" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="255" spans="6:6">
-      <c r="F255" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="256" spans="6:6">
-      <c r="F256" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="257" spans="6:6">
-      <c r="F257" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="258" spans="6:6">
-      <c r="F258" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="259" spans="6:6">
-      <c r="F259" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="260" spans="6:6">
-      <c r="F260" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="261" spans="6:6">
-      <c r="F261" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="262" spans="6:6">
-      <c r="F262" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="263" spans="6:6">
-      <c r="F263" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="264" spans="6:6">
-      <c r="F264" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="265" spans="6:6">
-      <c r="F265" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="266" spans="6:6">
-      <c r="F266" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="267" spans="6:6">
-      <c r="F267" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="268" spans="6:6">
-      <c r="F268" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="269" spans="6:6">
-      <c r="F269" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="270" spans="6:6">
-      <c r="F270" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="271" spans="6:6">
-      <c r="F271" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="272" spans="6:6">
-      <c r="F272" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="273" spans="6:6">
-      <c r="F273" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="274" spans="6:6">
-      <c r="F274" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="275" spans="6:6">
-      <c r="F275" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="276" spans="6:6">
-      <c r="F276" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="277" spans="6:6">
-      <c r="F277" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="278" spans="6:6">
-      <c r="F278" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="279" spans="6:6">
-      <c r="F279" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="280" spans="6:6">
-      <c r="F280" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="281" spans="6:6">
-      <c r="F281" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="282" spans="6:6">
-      <c r="F282" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="283" spans="6:6">
-      <c r="F283" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="284" spans="6:6">
-      <c r="F284" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="285" spans="6:6">
-      <c r="F285" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="286" spans="6:6">
-      <c r="F286" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="287" spans="6:6">
-      <c r="F287" t="s">
-        <v>553</v>
+    </row>
+    <row r="288" spans="11:11">
+      <c r="K288" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -1116,10 +1116,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="608">
   <si>
     <t>alias</t>
   </si>
@@ -817,6 +817,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3388,120 +3391,120 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -3542,1520 +3545,1520 @@
   <sheetData>
     <row r="1" spans="5:20">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="T1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="5:20">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="5:20">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="T3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="5:20">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="5:20">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="5:20">
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="5:20">
       <c r="E7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="5:20">
       <c r="K8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="5:20">
       <c r="K9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="5:20">
       <c r="K10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="5:20">
       <c r="K11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="5:20">
       <c r="K12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="5:20">
       <c r="K13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="5:20">
       <c r="K14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="5:20">
       <c r="K15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="5:20">
       <c r="K16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="11:11">
       <c r="K17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="11:11">
       <c r="K19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="11:11">
       <c r="K20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="11:11">
       <c r="K21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="11:11">
       <c r="K22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="11:11">
       <c r="K23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="11:11">
       <c r="K24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="11:11">
       <c r="K25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="11:11">
       <c r="K26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="11:11">
       <c r="K28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="11:11">
       <c r="K29" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="11:11">
       <c r="K30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="11:11">
       <c r="K31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="11:11">
       <c r="K32" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="11:11">
       <c r="K34" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="11:11">
       <c r="K35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="11:11">
       <c r="K36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="11:11">
       <c r="K37" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="11:11">
       <c r="K38" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="11:11">
       <c r="K41" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="11:11">
       <c r="K42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="11:11">
       <c r="K43" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="11:11">
       <c r="K44" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="11:11">
       <c r="K45" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="11:11">
       <c r="K46" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="11:11">
       <c r="K47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="11:11">
       <c r="K48" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="11:11">
       <c r="K49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="11:11">
       <c r="K50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="11:11">
       <c r="K51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="11:11">
       <c r="K52" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="11:11">
       <c r="K53" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="11:11">
       <c r="K54" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="11:11">
       <c r="K55" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="11:11">
       <c r="K56" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="11:11">
       <c r="K57" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="11:11">
       <c r="K58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="11:11">
       <c r="K59" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="11:11">
       <c r="K60" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="11:11">
       <c r="K61" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="11:11">
       <c r="K62" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="11:11">
       <c r="K63" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="11:11">
       <c r="K64" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65" spans="11:11">
       <c r="K65" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="11:11">
       <c r="K66" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="11:11">
       <c r="K67" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="11:11">
       <c r="K68" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="11:11">
       <c r="K69" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="11:11">
       <c r="K70" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="11:11">
       <c r="K71" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="11:11">
       <c r="K72" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="11:11">
       <c r="K73" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="11:11">
       <c r="K74" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="11:11">
       <c r="K75" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="11:11">
       <c r="K76" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="11:11">
       <c r="K77" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="11:11">
       <c r="K78" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="11:11">
       <c r="K79" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="80" spans="11:11">
       <c r="K80" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="11:11">
       <c r="K81" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="11:11">
       <c r="K82" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="11:11">
       <c r="K83" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="11:11">
       <c r="K84" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="11:11">
       <c r="K85" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="11:11">
       <c r="K86" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="11:11">
       <c r="K87" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="11:11">
       <c r="K88" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" spans="11:11">
       <c r="K89" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="11:11">
       <c r="K90" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" spans="11:11">
       <c r="K91" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="11:11">
       <c r="K92" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93" spans="11:11">
       <c r="K93" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94" spans="11:11">
       <c r="K94" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="95" spans="11:11">
       <c r="K95" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="11:11">
       <c r="K96" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="97" spans="11:11">
       <c r="K97" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="11:11">
       <c r="K98" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99" spans="11:11">
       <c r="K99" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="11:11">
       <c r="K100" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="11:11">
       <c r="K101" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="11:11">
       <c r="K102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="11:11">
       <c r="K103" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="104" spans="11:11">
       <c r="K104" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="11:11">
       <c r="K105" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="11:11">
       <c r="K106" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="11:11">
       <c r="K107" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108" spans="11:11">
       <c r="K108" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109" spans="11:11">
       <c r="K109" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="110" spans="11:11">
       <c r="K110" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="111" spans="11:11">
       <c r="K111" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="11:11">
       <c r="K112" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="113" spans="11:11">
       <c r="K113" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="114" spans="11:11">
       <c r="K114" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="115" spans="11:11">
       <c r="K115" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="116" spans="11:11">
       <c r="K116" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="11:11">
       <c r="K117" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118" spans="11:11">
       <c r="K118" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="119" spans="11:11">
       <c r="K119" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="11:11">
       <c r="K120" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="121" spans="11:11">
       <c r="K121" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="122" spans="11:11">
       <c r="K122" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="123" spans="11:11">
       <c r="K123" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="124" spans="11:11">
       <c r="K124" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="11:11">
       <c r="K125" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="11:11">
       <c r="K126" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="127" spans="11:11">
       <c r="K127" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="128" spans="11:11">
       <c r="K128" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="129" spans="11:11">
       <c r="K129" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="130" spans="11:11">
       <c r="K130" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="11:11">
       <c r="K131" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="132" spans="11:11">
       <c r="K132" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="133" spans="11:11">
       <c r="K133" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="134" spans="11:11">
       <c r="K134" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="135" spans="11:11">
       <c r="K135" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" spans="11:11">
       <c r="K136" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="11:11">
       <c r="K137" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="138" spans="11:11">
       <c r="K138" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" spans="11:11">
       <c r="K139" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="140" spans="11:11">
       <c r="K140" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141" spans="11:11">
       <c r="K141" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="142" spans="11:11">
       <c r="K142" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="143" spans="11:11">
       <c r="K143" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="144" spans="11:11">
       <c r="K144" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="145" spans="11:11">
       <c r="K145" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="11:11">
       <c r="K146" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="147" spans="11:11">
       <c r="K147" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="11:11">
       <c r="K148" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="149" spans="11:11">
       <c r="K149" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="150" spans="11:11">
       <c r="K150" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="11:11">
       <c r="K151" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="11:11">
       <c r="K152" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="153" spans="11:11">
       <c r="K153" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="154" spans="11:11">
       <c r="K154" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="155" spans="11:11">
       <c r="K155" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="156" spans="11:11">
       <c r="K156" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="11:11">
       <c r="K157" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="158" spans="11:11">
       <c r="K158" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="159" spans="11:11">
       <c r="K159" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" spans="11:11">
       <c r="K160" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="161" spans="11:11">
       <c r="K161" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="162" spans="11:11">
       <c r="K162" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="163" spans="11:11">
       <c r="K163" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="164" spans="11:11">
       <c r="K164" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="165" spans="11:11">
       <c r="K165" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="166" spans="11:11">
       <c r="K166" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" spans="11:11">
       <c r="K167" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168" spans="11:11">
       <c r="K168" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="169" spans="11:11">
       <c r="K169" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="170" spans="11:11">
       <c r="K170" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="171" spans="11:11">
       <c r="K171" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="172" spans="11:11">
       <c r="K172" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="173" spans="11:11">
       <c r="K173" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="174" spans="11:11">
       <c r="K174" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="175" spans="11:11">
       <c r="K175" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="176" spans="11:11">
       <c r="K176" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="177" spans="11:11">
       <c r="K177" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="178" spans="11:11">
       <c r="K178" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="179" spans="11:11">
       <c r="K179" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="180" spans="11:11">
       <c r="K180" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="181" spans="11:11">
       <c r="K181" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="182" spans="11:11">
       <c r="K182" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="183" spans="11:11">
       <c r="K183" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="184" spans="11:11">
       <c r="K184" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="185" spans="11:11">
       <c r="K185" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="186" spans="11:11">
       <c r="K186" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="187" spans="11:11">
       <c r="K187" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="188" spans="11:11">
       <c r="K188" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="189" spans="11:11">
       <c r="K189" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="11:11">
       <c r="K190" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="191" spans="11:11">
       <c r="K191" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="192" spans="11:11">
       <c r="K192" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="193" spans="11:11">
       <c r="K193" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="194" spans="11:11">
       <c r="K194" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="195" spans="11:11">
       <c r="K195" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="196" spans="11:11">
       <c r="K196" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="197" spans="11:11">
       <c r="K197" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="198" spans="11:11">
       <c r="K198" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="199" spans="11:11">
       <c r="K199" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="200" spans="11:11">
       <c r="K200" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="201" spans="11:11">
       <c r="K201" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="202" spans="11:11">
       <c r="K202" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="203" spans="11:11">
       <c r="K203" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="204" spans="11:11">
       <c r="K204" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="205" spans="11:11">
       <c r="K205" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="206" spans="11:11">
       <c r="K206" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="207" spans="11:11">
       <c r="K207" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="208" spans="11:11">
       <c r="K208" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="209" spans="11:11">
       <c r="K209" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="210" spans="11:11">
       <c r="K210" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="211" spans="11:11">
       <c r="K211" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="212" spans="11:11">
       <c r="K212" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="213" spans="11:11">
       <c r="K213" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="214" spans="11:11">
       <c r="K214" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="215" spans="11:11">
       <c r="K215" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="216" spans="11:11">
       <c r="K216" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="217" spans="11:11">
       <c r="K217" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="218" spans="11:11">
       <c r="K218" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="219" spans="11:11">
       <c r="K219" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="220" spans="11:11">
       <c r="K220" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="221" spans="11:11">
       <c r="K221" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="222" spans="11:11">
       <c r="K222" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="223" spans="11:11">
       <c r="K223" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="224" spans="11:11">
       <c r="K224" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="225" spans="11:11">
       <c r="K225" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="226" spans="11:11">
       <c r="K226" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="227" spans="11:11">
       <c r="K227" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="228" spans="11:11">
       <c r="K228" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="229" spans="11:11">
       <c r="K229" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="230" spans="11:11">
       <c r="K230" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="231" spans="11:11">
       <c r="K231" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="232" spans="11:11">
       <c r="K232" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="233" spans="11:11">
       <c r="K233" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="234" spans="11:11">
       <c r="K234" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="235" spans="11:11">
       <c r="K235" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="236" spans="11:11">
       <c r="K236" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="237" spans="11:11">
       <c r="K237" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="238" spans="11:11">
       <c r="K238" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="239" spans="11:11">
       <c r="K239" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="240" spans="11:11">
       <c r="K240" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="241" spans="11:11">
       <c r="K241" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="242" spans="11:11">
       <c r="K242" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="243" spans="11:11">
       <c r="K243" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="244" spans="11:11">
       <c r="K244" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="245" spans="11:11">
       <c r="K245" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="246" spans="11:11">
       <c r="K246" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="247" spans="11:11">
       <c r="K247" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="248" spans="11:11">
       <c r="K248" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="249" spans="11:11">
       <c r="K249" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="250" spans="11:11">
       <c r="K250" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="251" spans="11:11">
       <c r="K251" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="252" spans="11:11">
       <c r="K252" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="253" spans="11:11">
       <c r="K253" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="254" spans="11:11">
       <c r="K254" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="255" spans="11:11">
       <c r="K255" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="256" spans="11:11">
       <c r="K256" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="257" spans="11:11">
       <c r="K257" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="258" spans="11:11">
       <c r="K258" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="259" spans="11:11">
       <c r="K259" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="260" spans="11:11">
       <c r="K260" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="261" spans="11:11">
       <c r="K261" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="262" spans="11:11">
       <c r="K262" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="263" spans="11:11">
       <c r="K263" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="264" spans="11:11">
       <c r="K264" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="265" spans="11:11">
       <c r="K265" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="266" spans="11:11">
       <c r="K266" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="267" spans="11:11">
       <c r="K267" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="268" spans="11:11">
       <c r="K268" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="269" spans="11:11">
       <c r="K269" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="270" spans="11:11">
       <c r="K270" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="271" spans="11:11">
       <c r="K271" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="272" spans="11:11">
       <c r="K272" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="273" spans="11:11">
       <c r="K273" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="274" spans="11:11">
       <c r="K274" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="275" spans="11:11">
       <c r="K275" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="276" spans="11:11">
       <c r="K276" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="277" spans="11:11">
       <c r="K277" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="278" spans="11:11">
       <c r="K278" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="11:11">
       <c r="K279" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="280" spans="11:11">
       <c r="K280" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="281" spans="11:11">
       <c r="K281" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="282" spans="11:11">
       <c r="K282" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="283" spans="11:11">
       <c r="K283" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="284" spans="11:11">
       <c r="K284" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="11:11">
       <c r="K285" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="286" spans="11:11">
       <c r="K286" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="11:11">
       <c r="K287" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="288" spans="11:11">
       <c r="K288" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -117,7 +117,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -135,7 +135,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="609">
   <si>
     <t>alias</t>
   </si>
@@ -927,6 +927,24 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>engrafted tumor sample passage</t>
+  </si>
+  <si>
+    <t>(Mandatory) If engrafted tumor sample, please indicate the passage from which the engrafted tumor sample was harvested (passage 0 must be the first engraftment in the mouse). please ensure you add a non-negative number greater than 0. if the sample origin is “patient tumor” please enter "not applicable". if passage number is unknown please enter "not provided”.</t>
+  </si>
+  <si>
+    <t>engrafted tumor collection site</t>
+  </si>
+  <si>
+    <t>(Recommended) If the sample origin is “engrafted tumor”, please indicate the collection site from which the engrafted tumor sample was extracted (e.g. liver). please use terminology from ncit ontology: https://www.ebi.ac.uk/ols/ontologies/ncit. if unknown please select ncit term: “not available” ( http://purl.obolibrary.org/obo/ncit_c126101)”. if the sample origin is “patient tumor” please do not use this attribute.</t>
+  </si>
+  <si>
+    <t>patient tumor site of collection</t>
+  </si>
+  <si>
+    <t>(Mandatory) Site of collection of the patient tissue sample which was extracted (can be different to primary site if it is a metastatic sample). please use ncit ontology, e.g. liver (http://purl.obolibrary.org/obo/ncit_c12392). if unknown please select ncit term: “not available” (http://purl.obolibrary.org/obo/ncit_c126101)</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1755,6 +1773,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1792,24 +1813,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>engrafted tumor sample passage</t>
-  </si>
-  <si>
-    <t>(Mandatory) If engrafted tumor sample, please indicate the passage from which the engrafted tumor sample was harvested (passage 0 must be the first engraftment in the mouse). please ensure you add a non-negative number greater than 0. if the sample origin is “patient tumor” please enter "not applicable". if passage number is unknown please enter "not provided”.</t>
-  </si>
-  <si>
-    <t>engrafted tumor collection site</t>
-  </si>
-  <si>
-    <t>(Recommended) If the sample origin is “engrafted tumor”, please indicate the collection site from which the engrafted tumor sample was extracted (e.g. liver). please use terminology from ncit ontology: https://www.ebi.ac.uk/ols/ontologies/ncit. if unknown please select ncit term: “not available” ( http://purl.obolibrary.org/obo/ncit_c126101)”. if the sample origin is “patient tumor” please do not use this attribute.</t>
-  </si>
-  <si>
-    <t>patient tumor site of collection</t>
-  </si>
-  <si>
-    <t>(Mandatory) Site of collection of the patient tissue sample which was extracted (can be different to primary site if it is a metastatic sample). please use ncit ontology, e.g. liver (http://purl.obolibrary.org/obo/ncit_c12392). if unknown please select ncit term: “not available” (http://purl.obolibrary.org/obo/ncit_c126101)</t>
   </si>
   <si>
     <t>engraftment host strain name</t>
@@ -3415,34 +3418,34 @@
         <v>294</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>583</v>
+        <v>296</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>585</v>
+        <v>298</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>587</v>
+        <v>300</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="150" customHeight="1">
@@ -3477,34 +3480,34 @@
         <v>295</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>584</v>
+        <v>297</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>586</v>
+        <v>299</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>588</v>
+        <v>301</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -3521,7 +3524,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
       <formula1>patienttumortype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
@@ -3537,7 +3540,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:T288"/>
+  <dimension ref="E1:T289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3556,14 +3559,14 @@
       <c r="I1" t="s">
         <v>289</v>
       </c>
-      <c r="K1" t="s">
-        <v>296</v>
+      <c r="N1" t="s">
+        <v>302</v>
       </c>
       <c r="S1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="5:20">
@@ -3579,14 +3582,14 @@
       <c r="I2" t="s">
         <v>290</v>
       </c>
-      <c r="K2" t="s">
-        <v>297</v>
+      <c r="N2" t="s">
+        <v>303</v>
       </c>
       <c r="S2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="5:20">
@@ -3599,14 +3602,14 @@
       <c r="I3" t="s">
         <v>291</v>
       </c>
-      <c r="K3" t="s">
-        <v>298</v>
+      <c r="N3" t="s">
+        <v>304</v>
       </c>
       <c r="S3" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="T3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="5:20">
@@ -3619,8 +3622,8 @@
       <c r="I4" t="s">
         <v>272</v>
       </c>
-      <c r="K4" t="s">
-        <v>299</v>
+      <c r="N4" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="5:20">
@@ -3630,8 +3633,8 @@
       <c r="F5" t="s">
         <v>278</v>
       </c>
-      <c r="K5" t="s">
-        <v>300</v>
+      <c r="N5" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="5:20">
@@ -3641,8 +3644,8 @@
       <c r="F6" t="s">
         <v>279</v>
       </c>
-      <c r="K6" t="s">
-        <v>301</v>
+      <c r="N6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="5:20">
@@ -3652,1413 +3655,1418 @@
       <c r="F7" t="s">
         <v>280</v>
       </c>
-      <c r="K7" t="s">
-        <v>302</v>
+      <c r="N7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="5:20">
-      <c r="K8" t="s">
-        <v>303</v>
+      <c r="N8" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="5:20">
-      <c r="K9" t="s">
-        <v>304</v>
+      <c r="N9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="5:20">
-      <c r="K10" t="s">
-        <v>305</v>
+      <c r="N10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="5:20">
-      <c r="K11" t="s">
-        <v>306</v>
+      <c r="N11" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="5:20">
-      <c r="K12" t="s">
-        <v>307</v>
+      <c r="N12" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="5:20">
-      <c r="K13" t="s">
-        <v>308</v>
+      <c r="N13" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="5:20">
-      <c r="K14" t="s">
-        <v>309</v>
+      <c r="N14" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="5:20">
-      <c r="K15" t="s">
-        <v>310</v>
+      <c r="N15" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="5:20">
-      <c r="K16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11">
-      <c r="K18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="11:11">
-      <c r="K20" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="11:11">
-      <c r="K21" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="11:11">
-      <c r="K22" t="s">
+      <c r="N16" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="11:11">
-      <c r="K23" t="s">
+    <row r="17" spans="14:14">
+      <c r="N17" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="11:11">
-      <c r="K24" t="s">
+    <row r="18" spans="14:14">
+      <c r="N18" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="11:11">
-      <c r="K25" t="s">
+    <row r="19" spans="14:14">
+      <c r="N19" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="11:11">
-      <c r="K26" t="s">
+    <row r="20" spans="14:14">
+      <c r="N20" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="11:11">
-      <c r="K27" t="s">
+    <row r="21" spans="14:14">
+      <c r="N21" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="11:11">
-      <c r="K28" t="s">
+    <row r="22" spans="14:14">
+      <c r="N22" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="11:11">
-      <c r="K29" t="s">
+    <row r="23" spans="14:14">
+      <c r="N23" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="30" spans="11:11">
-      <c r="K30" t="s">
+    <row r="24" spans="14:14">
+      <c r="N24" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="31" spans="11:11">
-      <c r="K31" t="s">
+    <row r="25" spans="14:14">
+      <c r="N25" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="11:11">
-      <c r="K32" t="s">
+    <row r="26" spans="14:14">
+      <c r="N26" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
-      <c r="K33" t="s">
+    <row r="27" spans="14:14">
+      <c r="N27" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
-      <c r="K34" t="s">
+    <row r="28" spans="14:14">
+      <c r="N28" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
-      <c r="K35" t="s">
+    <row r="29" spans="14:14">
+      <c r="N29" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
-      <c r="K36" t="s">
+    <row r="30" spans="14:14">
+      <c r="N30" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
-      <c r="K37" t="s">
+    <row r="31" spans="14:14">
+      <c r="N31" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
-      <c r="K38" t="s">
+    <row r="32" spans="14:14">
+      <c r="N32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
-      <c r="K39" t="s">
+    <row r="33" spans="14:14">
+      <c r="N33" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
-      <c r="K40" t="s">
+    <row r="34" spans="14:14">
+      <c r="N34" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
-      <c r="K41" t="s">
+    <row r="35" spans="14:14">
+      <c r="N35" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
-      <c r="K42" t="s">
+    <row r="36" spans="14:14">
+      <c r="N36" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
-      <c r="K43" t="s">
+    <row r="37" spans="14:14">
+      <c r="N37" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
-      <c r="K44" t="s">
+    <row r="38" spans="14:14">
+      <c r="N38" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
-      <c r="K45" t="s">
+    <row r="39" spans="14:14">
+      <c r="N39" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="11:11">
-      <c r="K46" t="s">
+    <row r="40" spans="14:14">
+      <c r="N40" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="11:11">
-      <c r="K47" t="s">
+    <row r="41" spans="14:14">
+      <c r="N41" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="11:11">
-      <c r="K48" t="s">
+    <row r="42" spans="14:14">
+      <c r="N42" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="49" spans="11:11">
-      <c r="K49" t="s">
+    <row r="43" spans="14:14">
+      <c r="N43" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="50" spans="11:11">
-      <c r="K50" t="s">
+    <row r="44" spans="14:14">
+      <c r="N44" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="51" spans="11:11">
-      <c r="K51" t="s">
+    <row r="45" spans="14:14">
+      <c r="N45" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="11:11">
-      <c r="K52" t="s">
+    <row r="46" spans="14:14">
+      <c r="N46" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="53" spans="11:11">
-      <c r="K53" t="s">
+    <row r="47" spans="14:14">
+      <c r="N47" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="54" spans="11:11">
-      <c r="K54" t="s">
+    <row r="48" spans="14:14">
+      <c r="N48" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="11:11">
-      <c r="K55" t="s">
+    <row r="49" spans="14:14">
+      <c r="N49" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="11:11">
-      <c r="K56" t="s">
+    <row r="50" spans="14:14">
+      <c r="N50" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="11:11">
-      <c r="K57" t="s">
+    <row r="51" spans="14:14">
+      <c r="N51" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="58" spans="11:11">
-      <c r="K58" t="s">
+    <row r="52" spans="14:14">
+      <c r="N52" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="59" spans="11:11">
-      <c r="K59" t="s">
+    <row r="53" spans="14:14">
+      <c r="N53" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="11:11">
-      <c r="K60" t="s">
+    <row r="54" spans="14:14">
+      <c r="N54" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="61" spans="11:11">
-      <c r="K61" t="s">
+    <row r="55" spans="14:14">
+      <c r="N55" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="11:11">
-      <c r="K62" t="s">
+    <row r="56" spans="14:14">
+      <c r="N56" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="63" spans="11:11">
-      <c r="K63" t="s">
+    <row r="57" spans="14:14">
+      <c r="N57" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="11:11">
-      <c r="K64" t="s">
+    <row r="58" spans="14:14">
+      <c r="N58" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="11:11">
-      <c r="K65" t="s">
+    <row r="59" spans="14:14">
+      <c r="N59" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="11:11">
-      <c r="K66" t="s">
+    <row r="60" spans="14:14">
+      <c r="N60" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="67" spans="11:11">
-      <c r="K67" t="s">
+    <row r="61" spans="14:14">
+      <c r="N61" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="68" spans="11:11">
-      <c r="K68" t="s">
+    <row r="62" spans="14:14">
+      <c r="N62" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="69" spans="11:11">
-      <c r="K69" t="s">
+    <row r="63" spans="14:14">
+      <c r="N63" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="70" spans="11:11">
-      <c r="K70" t="s">
+    <row r="64" spans="14:14">
+      <c r="N64" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="71" spans="11:11">
-      <c r="K71" t="s">
+    <row r="65" spans="14:14">
+      <c r="N65" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="72" spans="11:11">
-      <c r="K72" t="s">
+    <row r="66" spans="14:14">
+      <c r="N66" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="73" spans="11:11">
-      <c r="K73" t="s">
+    <row r="67" spans="14:14">
+      <c r="N67" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="11:11">
-      <c r="K74" t="s">
+    <row r="68" spans="14:14">
+      <c r="N68" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="75" spans="11:11">
-      <c r="K75" t="s">
+    <row r="69" spans="14:14">
+      <c r="N69" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="11:11">
-      <c r="K76" t="s">
+    <row r="70" spans="14:14">
+      <c r="N70" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="77" spans="11:11">
-      <c r="K77" t="s">
+    <row r="71" spans="14:14">
+      <c r="N71" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="78" spans="11:11">
-      <c r="K78" t="s">
+    <row r="72" spans="14:14">
+      <c r="N72" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="79" spans="11:11">
-      <c r="K79" t="s">
+    <row r="73" spans="14:14">
+      <c r="N73" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="80" spans="11:11">
-      <c r="K80" t="s">
+    <row r="74" spans="14:14">
+      <c r="N74" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="81" spans="11:11">
-      <c r="K81" t="s">
+    <row r="75" spans="14:14">
+      <c r="N75" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="82" spans="11:11">
-      <c r="K82" t="s">
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="83" spans="11:11">
-      <c r="K83" t="s">
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="11:11">
-      <c r="K84" t="s">
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="85" spans="11:11">
-      <c r="K85" t="s">
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="86" spans="11:11">
-      <c r="K86" t="s">
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="87" spans="11:11">
-      <c r="K87" t="s">
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="88" spans="11:11">
-      <c r="K88" t="s">
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="89" spans="11:11">
-      <c r="K89" t="s">
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="90" spans="11:11">
-      <c r="K90" t="s">
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="91" spans="11:11">
-      <c r="K91" t="s">
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="11:11">
-      <c r="K92" t="s">
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="11:11">
-      <c r="K93" t="s">
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="11:11">
-      <c r="K94" t="s">
+    <row r="88" spans="14:14">
+      <c r="N88" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="95" spans="11:11">
-      <c r="K95" t="s">
+    <row r="89" spans="14:14">
+      <c r="N89" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="96" spans="11:11">
-      <c r="K96" t="s">
+    <row r="90" spans="14:14">
+      <c r="N90" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="97" spans="11:11">
-      <c r="K97" t="s">
+    <row r="91" spans="14:14">
+      <c r="N91" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="98" spans="11:11">
-      <c r="K98" t="s">
+    <row r="92" spans="14:14">
+      <c r="N92" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="99" spans="11:11">
-      <c r="K99" t="s">
+    <row r="93" spans="14:14">
+      <c r="N93" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="100" spans="11:11">
-      <c r="K100" t="s">
+    <row r="94" spans="14:14">
+      <c r="N94" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="101" spans="11:11">
-      <c r="K101" t="s">
+    <row r="95" spans="14:14">
+      <c r="N95" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="102" spans="11:11">
-      <c r="K102" t="s">
+    <row r="96" spans="14:14">
+      <c r="N96" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="103" spans="11:11">
-      <c r="K103" t="s">
+    <row r="97" spans="14:14">
+      <c r="N97" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="104" spans="11:11">
-      <c r="K104" t="s">
+    <row r="98" spans="14:14">
+      <c r="N98" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="105" spans="11:11">
-      <c r="K105" t="s">
+    <row r="99" spans="14:14">
+      <c r="N99" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="106" spans="11:11">
-      <c r="K106" t="s">
+    <row r="100" spans="14:14">
+      <c r="N100" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="107" spans="11:11">
-      <c r="K107" t="s">
+    <row r="101" spans="14:14">
+      <c r="N101" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="108" spans="11:11">
-      <c r="K108" t="s">
+    <row r="102" spans="14:14">
+      <c r="N102" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="109" spans="11:11">
-      <c r="K109" t="s">
+    <row r="103" spans="14:14">
+      <c r="N103" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="110" spans="11:11">
-      <c r="K110" t="s">
+    <row r="104" spans="14:14">
+      <c r="N104" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="111" spans="11:11">
-      <c r="K111" t="s">
+    <row r="105" spans="14:14">
+      <c r="N105" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="11:11">
-      <c r="K112" t="s">
+    <row r="106" spans="14:14">
+      <c r="N106" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="113" spans="11:11">
-      <c r="K113" t="s">
+    <row r="107" spans="14:14">
+      <c r="N107" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="114" spans="11:11">
-      <c r="K114" t="s">
+    <row r="108" spans="14:14">
+      <c r="N108" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="115" spans="11:11">
-      <c r="K115" t="s">
+    <row r="109" spans="14:14">
+      <c r="N109" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="116" spans="11:11">
-      <c r="K116" t="s">
+    <row r="110" spans="14:14">
+      <c r="N110" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="117" spans="11:11">
-      <c r="K117" t="s">
+    <row r="111" spans="14:14">
+      <c r="N111" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="118" spans="11:11">
-      <c r="K118" t="s">
+    <row r="112" spans="14:14">
+      <c r="N112" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="119" spans="11:11">
-      <c r="K119" t="s">
+    <row r="113" spans="14:14">
+      <c r="N113" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="11:11">
-      <c r="K120" t="s">
+    <row r="114" spans="14:14">
+      <c r="N114" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="121" spans="11:11">
-      <c r="K121" t="s">
+    <row r="115" spans="14:14">
+      <c r="N115" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="122" spans="11:11">
-      <c r="K122" t="s">
+    <row r="116" spans="14:14">
+      <c r="N116" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="123" spans="11:11">
-      <c r="K123" t="s">
+    <row r="117" spans="14:14">
+      <c r="N117" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="124" spans="11:11">
-      <c r="K124" t="s">
+    <row r="118" spans="14:14">
+      <c r="N118" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="125" spans="11:11">
-      <c r="K125" t="s">
+    <row r="119" spans="14:14">
+      <c r="N119" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="126" spans="11:11">
-      <c r="K126" t="s">
+    <row r="120" spans="14:14">
+      <c r="N120" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="127" spans="11:11">
-      <c r="K127" t="s">
+    <row r="121" spans="14:14">
+      <c r="N121" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="128" spans="11:11">
-      <c r="K128" t="s">
+    <row r="122" spans="14:14">
+      <c r="N122" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="129" spans="11:11">
-      <c r="K129" t="s">
+    <row r="123" spans="14:14">
+      <c r="N123" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="130" spans="11:11">
-      <c r="K130" t="s">
+    <row r="124" spans="14:14">
+      <c r="N124" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="131" spans="11:11">
-      <c r="K131" t="s">
+    <row r="125" spans="14:14">
+      <c r="N125" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="132" spans="11:11">
-      <c r="K132" t="s">
+    <row r="126" spans="14:14">
+      <c r="N126" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="133" spans="11:11">
-      <c r="K133" t="s">
+    <row r="127" spans="14:14">
+      <c r="N127" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="134" spans="11:11">
-      <c r="K134" t="s">
+    <row r="128" spans="14:14">
+      <c r="N128" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="135" spans="11:11">
-      <c r="K135" t="s">
+    <row r="129" spans="14:14">
+      <c r="N129" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="136" spans="11:11">
-      <c r="K136" t="s">
+    <row r="130" spans="14:14">
+      <c r="N130" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="137" spans="11:11">
-      <c r="K137" t="s">
+    <row r="131" spans="14:14">
+      <c r="N131" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="138" spans="11:11">
-      <c r="K138" t="s">
+    <row r="132" spans="14:14">
+      <c r="N132" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="139" spans="11:11">
-      <c r="K139" t="s">
+    <row r="133" spans="14:14">
+      <c r="N133" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="140" spans="11:11">
-      <c r="K140" t="s">
+    <row r="134" spans="14:14">
+      <c r="N134" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="141" spans="11:11">
-      <c r="K141" t="s">
+    <row r="135" spans="14:14">
+      <c r="N135" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="142" spans="11:11">
-      <c r="K142" t="s">
+    <row r="136" spans="14:14">
+      <c r="N136" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="143" spans="11:11">
-      <c r="K143" t="s">
+    <row r="137" spans="14:14">
+      <c r="N137" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="144" spans="11:11">
-      <c r="K144" t="s">
+    <row r="138" spans="14:14">
+      <c r="N138" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="145" spans="11:11">
-      <c r="K145" t="s">
+    <row r="139" spans="14:14">
+      <c r="N139" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="146" spans="11:11">
-      <c r="K146" t="s">
+    <row r="140" spans="14:14">
+      <c r="N140" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="11:11">
-      <c r="K147" t="s">
+    <row r="141" spans="14:14">
+      <c r="N141" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="148" spans="11:11">
-      <c r="K148" t="s">
+    <row r="142" spans="14:14">
+      <c r="N142" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="149" spans="11:11">
-      <c r="K149" t="s">
+    <row r="143" spans="14:14">
+      <c r="N143" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="150" spans="11:11">
-      <c r="K150" t="s">
+    <row r="144" spans="14:14">
+      <c r="N144" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="151" spans="11:11">
-      <c r="K151" t="s">
+    <row r="145" spans="14:14">
+      <c r="N145" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="152" spans="11:11">
-      <c r="K152" t="s">
+    <row r="146" spans="14:14">
+      <c r="N146" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="153" spans="11:11">
-      <c r="K153" t="s">
+    <row r="147" spans="14:14">
+      <c r="N147" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="154" spans="11:11">
-      <c r="K154" t="s">
+    <row r="148" spans="14:14">
+      <c r="N148" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="155" spans="11:11">
-      <c r="K155" t="s">
+    <row r="149" spans="14:14">
+      <c r="N149" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="156" spans="11:11">
-      <c r="K156" t="s">
+    <row r="150" spans="14:14">
+      <c r="N150" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="157" spans="11:11">
-      <c r="K157" t="s">
+    <row r="151" spans="14:14">
+      <c r="N151" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="11:11">
-      <c r="K158" t="s">
+    <row r="152" spans="14:14">
+      <c r="N152" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="159" spans="11:11">
-      <c r="K159" t="s">
+    <row r="153" spans="14:14">
+      <c r="N153" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="160" spans="11:11">
-      <c r="K160" t="s">
+    <row r="154" spans="14:14">
+      <c r="N154" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="161" spans="11:11">
-      <c r="K161" t="s">
+    <row r="155" spans="14:14">
+      <c r="N155" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="162" spans="11:11">
-      <c r="K162" t="s">
+    <row r="156" spans="14:14">
+      <c r="N156" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="163" spans="11:11">
-      <c r="K163" t="s">
+    <row r="157" spans="14:14">
+      <c r="N157" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="164" spans="11:11">
-      <c r="K164" t="s">
+    <row r="158" spans="14:14">
+      <c r="N158" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="165" spans="11:11">
-      <c r="K165" t="s">
+    <row r="159" spans="14:14">
+      <c r="N159" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="166" spans="11:11">
-      <c r="K166" t="s">
+    <row r="160" spans="14:14">
+      <c r="N160" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="167" spans="11:11">
-      <c r="K167" t="s">
+    <row r="161" spans="14:14">
+      <c r="N161" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="168" spans="11:11">
-      <c r="K168" t="s">
+    <row r="162" spans="14:14">
+      <c r="N162" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="169" spans="11:11">
-      <c r="K169" t="s">
+    <row r="163" spans="14:14">
+      <c r="N163" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="170" spans="11:11">
-      <c r="K170" t="s">
+    <row r="164" spans="14:14">
+      <c r="N164" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="171" spans="11:11">
-      <c r="K171" t="s">
+    <row r="165" spans="14:14">
+      <c r="N165" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="172" spans="11:11">
-      <c r="K172" t="s">
+    <row r="166" spans="14:14">
+      <c r="N166" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="173" spans="11:11">
-      <c r="K173" t="s">
+    <row r="167" spans="14:14">
+      <c r="N167" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="174" spans="11:11">
-      <c r="K174" t="s">
+    <row r="168" spans="14:14">
+      <c r="N168" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="175" spans="11:11">
-      <c r="K175" t="s">
+    <row r="169" spans="14:14">
+      <c r="N169" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="176" spans="11:11">
-      <c r="K176" t="s">
+    <row r="170" spans="14:14">
+      <c r="N170" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="177" spans="11:11">
-      <c r="K177" t="s">
+    <row r="171" spans="14:14">
+      <c r="N171" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="178" spans="11:11">
-      <c r="K178" t="s">
+    <row r="172" spans="14:14">
+      <c r="N172" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="179" spans="11:11">
-      <c r="K179" t="s">
+    <row r="173" spans="14:14">
+      <c r="N173" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="180" spans="11:11">
-      <c r="K180" t="s">
+    <row r="174" spans="14:14">
+      <c r="N174" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="181" spans="11:11">
-      <c r="K181" t="s">
+    <row r="175" spans="14:14">
+      <c r="N175" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="182" spans="11:11">
-      <c r="K182" t="s">
+    <row r="176" spans="14:14">
+      <c r="N176" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="183" spans="11:11">
-      <c r="K183" t="s">
+    <row r="177" spans="14:14">
+      <c r="N177" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="184" spans="11:11">
-      <c r="K184" t="s">
+    <row r="178" spans="14:14">
+      <c r="N178" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="185" spans="11:11">
-      <c r="K185" t="s">
+    <row r="179" spans="14:14">
+      <c r="N179" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="186" spans="11:11">
-      <c r="K186" t="s">
+    <row r="180" spans="14:14">
+      <c r="N180" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="187" spans="11:11">
-      <c r="K187" t="s">
+    <row r="181" spans="14:14">
+      <c r="N181" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="188" spans="11:11">
-      <c r="K188" t="s">
+    <row r="182" spans="14:14">
+      <c r="N182" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="189" spans="11:11">
-      <c r="K189" t="s">
+    <row r="183" spans="14:14">
+      <c r="N183" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="190" spans="11:11">
-      <c r="K190" t="s">
+    <row r="184" spans="14:14">
+      <c r="N184" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="191" spans="11:11">
-      <c r="K191" t="s">
+    <row r="185" spans="14:14">
+      <c r="N185" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="192" spans="11:11">
-      <c r="K192" t="s">
+    <row r="186" spans="14:14">
+      <c r="N186" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="193" spans="11:11">
-      <c r="K193" t="s">
+    <row r="187" spans="14:14">
+      <c r="N187" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="194" spans="11:11">
-      <c r="K194" t="s">
+    <row r="188" spans="14:14">
+      <c r="N188" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="195" spans="11:11">
-      <c r="K195" t="s">
+    <row r="189" spans="14:14">
+      <c r="N189" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="196" spans="11:11">
-      <c r="K196" t="s">
+    <row r="190" spans="14:14">
+      <c r="N190" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="197" spans="11:11">
-      <c r="K197" t="s">
+    <row r="191" spans="14:14">
+      <c r="N191" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="11:11">
-      <c r="K198" t="s">
+    <row r="192" spans="14:14">
+      <c r="N192" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="199" spans="11:11">
-      <c r="K199" t="s">
+    <row r="193" spans="14:14">
+      <c r="N193" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="200" spans="11:11">
-      <c r="K200" t="s">
+    <row r="194" spans="14:14">
+      <c r="N194" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="201" spans="11:11">
-      <c r="K201" t="s">
+    <row r="195" spans="14:14">
+      <c r="N195" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="202" spans="11:11">
-      <c r="K202" t="s">
+    <row r="196" spans="14:14">
+      <c r="N196" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="203" spans="11:11">
-      <c r="K203" t="s">
+    <row r="197" spans="14:14">
+      <c r="N197" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="204" spans="11:11">
-      <c r="K204" t="s">
+    <row r="198" spans="14:14">
+      <c r="N198" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="205" spans="11:11">
-      <c r="K205" t="s">
+    <row r="199" spans="14:14">
+      <c r="N199" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="206" spans="11:11">
-      <c r="K206" t="s">
+    <row r="200" spans="14:14">
+      <c r="N200" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="207" spans="11:11">
-      <c r="K207" t="s">
+    <row r="201" spans="14:14">
+      <c r="N201" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="208" spans="11:11">
-      <c r="K208" t="s">
+    <row r="202" spans="14:14">
+      <c r="N202" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="209" spans="11:11">
-      <c r="K209" t="s">
+    <row r="203" spans="14:14">
+      <c r="N203" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="210" spans="11:11">
-      <c r="K210" t="s">
+    <row r="204" spans="14:14">
+      <c r="N204" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="211" spans="11:11">
-      <c r="K211" t="s">
+    <row r="205" spans="14:14">
+      <c r="N205" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="212" spans="11:11">
-      <c r="K212" t="s">
+    <row r="206" spans="14:14">
+      <c r="N206" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="213" spans="11:11">
-      <c r="K213" t="s">
+    <row r="207" spans="14:14">
+      <c r="N207" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="214" spans="11:11">
-      <c r="K214" t="s">
+    <row r="208" spans="14:14">
+      <c r="N208" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="215" spans="11:11">
-      <c r="K215" t="s">
+    <row r="209" spans="14:14">
+      <c r="N209" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="216" spans="11:11">
-      <c r="K216" t="s">
+    <row r="210" spans="14:14">
+      <c r="N210" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="217" spans="11:11">
-      <c r="K217" t="s">
+    <row r="211" spans="14:14">
+      <c r="N211" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="218" spans="11:11">
-      <c r="K218" t="s">
+    <row r="212" spans="14:14">
+      <c r="N212" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="219" spans="11:11">
-      <c r="K219" t="s">
+    <row r="213" spans="14:14">
+      <c r="N213" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="220" spans="11:11">
-      <c r="K220" t="s">
+    <row r="214" spans="14:14">
+      <c r="N214" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="221" spans="11:11">
-      <c r="K221" t="s">
+    <row r="215" spans="14:14">
+      <c r="N215" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="222" spans="11:11">
-      <c r="K222" t="s">
+    <row r="216" spans="14:14">
+      <c r="N216" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="223" spans="11:11">
-      <c r="K223" t="s">
+    <row r="217" spans="14:14">
+      <c r="N217" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="224" spans="11:11">
-      <c r="K224" t="s">
+    <row r="218" spans="14:14">
+      <c r="N218" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="225" spans="11:11">
-      <c r="K225" t="s">
+    <row r="219" spans="14:14">
+      <c r="N219" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="226" spans="11:11">
-      <c r="K226" t="s">
+    <row r="220" spans="14:14">
+      <c r="N220" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="227" spans="11:11">
-      <c r="K227" t="s">
+    <row r="221" spans="14:14">
+      <c r="N221" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="228" spans="11:11">
-      <c r="K228" t="s">
+    <row r="222" spans="14:14">
+      <c r="N222" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="229" spans="11:11">
-      <c r="K229" t="s">
+    <row r="223" spans="14:14">
+      <c r="N223" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="230" spans="11:11">
-      <c r="K230" t="s">
+    <row r="224" spans="14:14">
+      <c r="N224" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="231" spans="11:11">
-      <c r="K231" t="s">
+    <row r="225" spans="14:14">
+      <c r="N225" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="232" spans="11:11">
-      <c r="K232" t="s">
+    <row r="226" spans="14:14">
+      <c r="N226" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="233" spans="11:11">
-      <c r="K233" t="s">
+    <row r="227" spans="14:14">
+      <c r="N227" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="234" spans="11:11">
-      <c r="K234" t="s">
+    <row r="228" spans="14:14">
+      <c r="N228" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="235" spans="11:11">
-      <c r="K235" t="s">
+    <row r="229" spans="14:14">
+      <c r="N229" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="236" spans="11:11">
-      <c r="K236" t="s">
+    <row r="230" spans="14:14">
+      <c r="N230" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="237" spans="11:11">
-      <c r="K237" t="s">
+    <row r="231" spans="14:14">
+      <c r="N231" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="238" spans="11:11">
-      <c r="K238" t="s">
+    <row r="232" spans="14:14">
+      <c r="N232" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="239" spans="11:11">
-      <c r="K239" t="s">
+    <row r="233" spans="14:14">
+      <c r="N233" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="240" spans="11:11">
-      <c r="K240" t="s">
+    <row r="234" spans="14:14">
+      <c r="N234" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="241" spans="11:11">
-      <c r="K241" t="s">
+    <row r="235" spans="14:14">
+      <c r="N235" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="242" spans="11:11">
-      <c r="K242" t="s">
+    <row r="236" spans="14:14">
+      <c r="N236" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="243" spans="11:11">
-      <c r="K243" t="s">
+    <row r="237" spans="14:14">
+      <c r="N237" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="244" spans="11:11">
-      <c r="K244" t="s">
+    <row r="238" spans="14:14">
+      <c r="N238" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="245" spans="11:11">
-      <c r="K245" t="s">
+    <row r="239" spans="14:14">
+      <c r="N239" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="246" spans="11:11">
-      <c r="K246" t="s">
+    <row r="240" spans="14:14">
+      <c r="N240" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="247" spans="11:11">
-      <c r="K247" t="s">
+    <row r="241" spans="14:14">
+      <c r="N241" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="248" spans="11:11">
-      <c r="K248" t="s">
+    <row r="242" spans="14:14">
+      <c r="N242" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="249" spans="11:11">
-      <c r="K249" t="s">
+    <row r="243" spans="14:14">
+      <c r="N243" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="250" spans="11:11">
-      <c r="K250" t="s">
+    <row r="244" spans="14:14">
+      <c r="N244" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="251" spans="11:11">
-      <c r="K251" t="s">
+    <row r="245" spans="14:14">
+      <c r="N245" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="252" spans="11:11">
-      <c r="K252" t="s">
+    <row r="246" spans="14:14">
+      <c r="N246" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="253" spans="11:11">
-      <c r="K253" t="s">
+    <row r="247" spans="14:14">
+      <c r="N247" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="254" spans="11:11">
-      <c r="K254" t="s">
+    <row r="248" spans="14:14">
+      <c r="N248" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="255" spans="11:11">
-      <c r="K255" t="s">
+    <row r="249" spans="14:14">
+      <c r="N249" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="256" spans="11:11">
-      <c r="K256" t="s">
+    <row r="250" spans="14:14">
+      <c r="N250" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="257" spans="11:11">
-      <c r="K257" t="s">
+    <row r="251" spans="14:14">
+      <c r="N251" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="258" spans="11:11">
-      <c r="K258" t="s">
+    <row r="252" spans="14:14">
+      <c r="N252" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="259" spans="11:11">
-      <c r="K259" t="s">
+    <row r="253" spans="14:14">
+      <c r="N253" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="260" spans="11:11">
-      <c r="K260" t="s">
+    <row r="254" spans="14:14">
+      <c r="N254" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="261" spans="11:11">
-      <c r="K261" t="s">
+    <row r="255" spans="14:14">
+      <c r="N255" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="262" spans="11:11">
-      <c r="K262" t="s">
+    <row r="256" spans="14:14">
+      <c r="N256" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="263" spans="11:11">
-      <c r="K263" t="s">
+    <row r="257" spans="14:14">
+      <c r="N257" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="264" spans="11:11">
-      <c r="K264" t="s">
+    <row r="258" spans="14:14">
+      <c r="N258" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="265" spans="11:11">
-      <c r="K265" t="s">
+    <row r="259" spans="14:14">
+      <c r="N259" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="266" spans="11:11">
-      <c r="K266" t="s">
+    <row r="260" spans="14:14">
+      <c r="N260" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="267" spans="11:11">
-      <c r="K267" t="s">
+    <row r="261" spans="14:14">
+      <c r="N261" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="268" spans="11:11">
-      <c r="K268" t="s">
+    <row r="262" spans="14:14">
+      <c r="N262" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="269" spans="11:11">
-      <c r="K269" t="s">
+    <row r="263" spans="14:14">
+      <c r="N263" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="270" spans="11:11">
-      <c r="K270" t="s">
+    <row r="264" spans="14:14">
+      <c r="N264" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="271" spans="11:11">
-      <c r="K271" t="s">
+    <row r="265" spans="14:14">
+      <c r="N265" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="272" spans="11:11">
-      <c r="K272" t="s">
+    <row r="266" spans="14:14">
+      <c r="N266" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="273" spans="11:11">
-      <c r="K273" t="s">
+    <row r="267" spans="14:14">
+      <c r="N267" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="274" spans="11:11">
-      <c r="K274" t="s">
+    <row r="268" spans="14:14">
+      <c r="N268" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="275" spans="11:11">
-      <c r="K275" t="s">
+    <row r="269" spans="14:14">
+      <c r="N269" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="276" spans="11:11">
-      <c r="K276" t="s">
+    <row r="270" spans="14:14">
+      <c r="N270" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="277" spans="11:11">
-      <c r="K277" t="s">
+    <row r="271" spans="14:14">
+      <c r="N271" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="278" spans="11:11">
-      <c r="K278" t="s">
+    <row r="272" spans="14:14">
+      <c r="N272" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="279" spans="11:11">
-      <c r="K279" t="s">
+    <row r="273" spans="14:14">
+      <c r="N273" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="280" spans="11:11">
-      <c r="K280" t="s">
+    <row r="274" spans="14:14">
+      <c r="N274" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="281" spans="11:11">
-      <c r="K281" t="s">
+    <row r="275" spans="14:14">
+      <c r="N275" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="282" spans="11:11">
-      <c r="K282" t="s">
+    <row r="276" spans="14:14">
+      <c r="N276" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="283" spans="11:11">
-      <c r="K283" t="s">
+    <row r="277" spans="14:14">
+      <c r="N277" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="284" spans="11:11">
-      <c r="K284" t="s">
+    <row r="278" spans="14:14">
+      <c r="N278" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="285" spans="11:11">
-      <c r="K285" t="s">
+    <row r="279" spans="14:14">
+      <c r="N279" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="286" spans="11:11">
-      <c r="K286" t="s">
+    <row r="280" spans="14:14">
+      <c r="N280" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="287" spans="11:11">
-      <c r="K287" t="s">
+    <row r="281" spans="14:14">
+      <c r="N281" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="282" spans="14:14">
+      <c r="N282" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="283" spans="14:14">
+      <c r="N283" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="284" spans="14:14">
+      <c r="N284" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="285" spans="14:14">
+      <c r="N285" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="286" spans="14:14">
+      <c r="N286" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="287" spans="14:14">
+      <c r="N287" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="288" spans="14:14">
+      <c r="N288" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="288" spans="11:11">
-      <c r="K288" t="s">
-        <v>582</v>
+    <row r="289" spans="14:14">
+      <c r="N289" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="610">
   <si>
     <t>alias</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2402,7 +2405,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2446,7 +2449,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2476,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3185,6 +3188,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3209,27 +3217,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3252,122 +3260,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3394,120 +3402,120 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -3548,1525 +3556,1525 @@
   <sheetData>
     <row r="1" spans="5:20">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="5:20">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="T2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="5:20">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="5:20">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="5:20">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="5:20">
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="5:20">
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="5:20">
       <c r="N8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="5:20">
       <c r="N9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="5:20">
       <c r="N10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="5:20">
       <c r="N11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="5:20">
       <c r="N12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="5:20">
       <c r="N13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="5:20">
       <c r="N14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="5:20">
       <c r="N15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="5:20">
       <c r="N16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="14:14">
       <c r="N17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="14:14">
       <c r="N18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="14:14">
       <c r="N21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="14:14">
       <c r="N22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="14:14">
       <c r="N25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="14:14">
       <c r="N26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="14:14">
       <c r="N27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="14:14">
       <c r="N28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="14:14">
       <c r="N29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="14:14">
       <c r="N30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="14:14">
       <c r="N31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="14:14">
       <c r="N32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="14:14">
       <c r="N33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="14:14">
       <c r="N34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="14:14">
       <c r="N35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="14:14">
       <c r="N36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="14:14">
       <c r="N37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="14:14">
       <c r="N38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="14:14">
       <c r="N39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="14:14">
       <c r="N40" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="14:14">
       <c r="N41" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="14:14">
       <c r="N42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="14:14">
       <c r="N43" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="14:14">
       <c r="N44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="14:14">
       <c r="N45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="14:14">
       <c r="N46" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="14:14">
       <c r="N47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="14:14">
       <c r="N48" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="14:14">
       <c r="N76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="14:14">
       <c r="N77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="14:14">
       <c r="N78" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="14:14">
       <c r="N79" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="14:14">
       <c r="N80" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="14:14">
       <c r="N81" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="14:14">
       <c r="N82" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="14:14">
       <c r="N87" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="14:14">
       <c r="N88" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="14:14">
       <c r="N89" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="14:14">
       <c r="N90" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="14:14">
       <c r="N91" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="14:14">
       <c r="N92" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="14:14">
       <c r="N93" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="14:14">
       <c r="N94" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="14:14">
       <c r="N95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="14:14">
       <c r="N96" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="14:14">
       <c r="N97" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="14:14">
       <c r="N98" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="14:14">
       <c r="N99" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="14:14">
       <c r="N100" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="14:14">
       <c r="N101" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="14:14">
       <c r="N102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" spans="14:14">
       <c r="N103" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="14:14">
       <c r="N104" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="14:14">
       <c r="N105" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="106" spans="14:14">
       <c r="N106" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="14:14">
       <c r="N107" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="14:14">
       <c r="N108" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="109" spans="14:14">
       <c r="N109" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="14:14">
       <c r="N110" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111" spans="14:14">
       <c r="N111" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112" spans="14:14">
       <c r="N112" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113" spans="14:14">
       <c r="N113" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="14:14">
       <c r="N114" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="115" spans="14:14">
       <c r="N115" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116" spans="14:14">
       <c r="N116" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="14:14">
       <c r="N117" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="14:14">
       <c r="N118" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="14:14">
       <c r="N119" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="14:14">
       <c r="N120" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="14:14">
       <c r="N121" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="14:14">
       <c r="N122" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123" spans="14:14">
       <c r="N123" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="14:14">
       <c r="N124" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="14:14">
       <c r="N125" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="14:14">
       <c r="N126" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="14:14">
       <c r="N127" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="14:14">
       <c r="N128" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" spans="14:14">
       <c r="N129" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" spans="14:14">
       <c r="N130" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" spans="14:14">
       <c r="N131" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="132" spans="14:14">
       <c r="N132" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" spans="14:14">
       <c r="N133" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="14:14">
       <c r="N134" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="14:14">
       <c r="N135" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136" spans="14:14">
       <c r="N136" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" spans="14:14">
       <c r="N137" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="138" spans="14:14">
       <c r="N138" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="14:14">
       <c r="N139" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" spans="14:14">
       <c r="N140" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="14:14">
       <c r="N141" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="14:14">
       <c r="N142" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="14:14">
       <c r="N143" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="14:14">
       <c r="N144" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="14:14">
       <c r="N145" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="14:14">
       <c r="N146" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="14:14">
       <c r="N147" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" spans="14:14">
       <c r="N148" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149" spans="14:14">
       <c r="N149" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="14:14">
       <c r="N150" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="151" spans="14:14">
       <c r="N151" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="14:14">
       <c r="N152" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="153" spans="14:14">
       <c r="N153" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" spans="14:14">
       <c r="N154" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="155" spans="14:14">
       <c r="N155" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="156" spans="14:14">
       <c r="N156" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="157" spans="14:14">
       <c r="N157" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="158" spans="14:14">
       <c r="N158" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="159" spans="14:14">
       <c r="N159" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="160" spans="14:14">
       <c r="N160" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="161" spans="14:14">
       <c r="N161" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="162" spans="14:14">
       <c r="N162" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" spans="14:14">
       <c r="N163" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" spans="14:14">
       <c r="N164" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" spans="14:14">
       <c r="N165" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="166" spans="14:14">
       <c r="N166" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="167" spans="14:14">
       <c r="N167" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" spans="14:14">
       <c r="N168" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="169" spans="14:14">
       <c r="N169" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="170" spans="14:14">
       <c r="N170" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" spans="14:14">
       <c r="N171" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="172" spans="14:14">
       <c r="N172" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="173" spans="14:14">
       <c r="N173" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="14:14">
       <c r="N174" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175" spans="14:14">
       <c r="N175" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="176" spans="14:14">
       <c r="N176" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="14:14">
       <c r="N177" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="178" spans="14:14">
       <c r="N178" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" spans="14:14">
       <c r="N179" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="180" spans="14:14">
       <c r="N180" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="181" spans="14:14">
       <c r="N181" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="182" spans="14:14">
       <c r="N182" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="183" spans="14:14">
       <c r="N183" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" spans="14:14">
       <c r="N184" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" spans="14:14">
       <c r="N185" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="186" spans="14:14">
       <c r="N186" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="187" spans="14:14">
       <c r="N187" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="188" spans="14:14">
       <c r="N188" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="189" spans="14:14">
       <c r="N189" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="190" spans="14:14">
       <c r="N190" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" spans="14:14">
       <c r="N191" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="192" spans="14:14">
       <c r="N192" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" spans="14:14">
       <c r="N193" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="194" spans="14:14">
       <c r="N194" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="195" spans="14:14">
       <c r="N195" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="196" spans="14:14">
       <c r="N196" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="197" spans="14:14">
       <c r="N197" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="14:14">
       <c r="N198" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="14:14">
       <c r="N199" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="200" spans="14:14">
       <c r="N200" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" spans="14:14">
       <c r="N201" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="202" spans="14:14">
       <c r="N202" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" spans="14:14">
       <c r="N203" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="14:14">
       <c r="N204" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="205" spans="14:14">
       <c r="N205" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="206" spans="14:14">
       <c r="N206" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="207" spans="14:14">
       <c r="N207" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="208" spans="14:14">
       <c r="N208" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="209" spans="14:14">
       <c r="N209" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="210" spans="14:14">
       <c r="N210" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="211" spans="14:14">
       <c r="N211" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="212" spans="14:14">
       <c r="N212" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="213" spans="14:14">
       <c r="N213" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="214" spans="14:14">
       <c r="N214" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="215" spans="14:14">
       <c r="N215" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="216" spans="14:14">
       <c r="N216" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="217" spans="14:14">
       <c r="N217" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="218" spans="14:14">
       <c r="N218" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="219" spans="14:14">
       <c r="N219" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="220" spans="14:14">
       <c r="N220" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="221" spans="14:14">
       <c r="N221" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="222" spans="14:14">
       <c r="N222" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="223" spans="14:14">
       <c r="N223" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="224" spans="14:14">
       <c r="N224" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="225" spans="14:14">
       <c r="N225" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="226" spans="14:14">
       <c r="N226" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="227" spans="14:14">
       <c r="N227" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="228" spans="14:14">
       <c r="N228" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="229" spans="14:14">
       <c r="N229" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="230" spans="14:14">
       <c r="N230" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="231" spans="14:14">
       <c r="N231" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="232" spans="14:14">
       <c r="N232" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="233" spans="14:14">
       <c r="N233" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="234" spans="14:14">
       <c r="N234" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="235" spans="14:14">
       <c r="N235" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="236" spans="14:14">
       <c r="N236" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="237" spans="14:14">
       <c r="N237" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="238" spans="14:14">
       <c r="N238" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="239" spans="14:14">
       <c r="N239" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="240" spans="14:14">
       <c r="N240" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="241" spans="14:14">
       <c r="N241" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="242" spans="14:14">
       <c r="N242" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="243" spans="14:14">
       <c r="N243" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="244" spans="14:14">
       <c r="N244" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="245" spans="14:14">
       <c r="N245" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="246" spans="14:14">
       <c r="N246" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="247" spans="14:14">
       <c r="N247" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="248" spans="14:14">
       <c r="N248" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="249" spans="14:14">
       <c r="N249" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="250" spans="14:14">
       <c r="N250" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="251" spans="14:14">
       <c r="N251" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="252" spans="14:14">
       <c r="N252" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="253" spans="14:14">
       <c r="N253" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="254" spans="14:14">
       <c r="N254" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="255" spans="14:14">
       <c r="N255" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="256" spans="14:14">
       <c r="N256" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="257" spans="14:14">
       <c r="N257" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="258" spans="14:14">
       <c r="N258" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="259" spans="14:14">
       <c r="N259" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="260" spans="14:14">
       <c r="N260" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="261" spans="14:14">
       <c r="N261" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="262" spans="14:14">
       <c r="N262" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263" spans="14:14">
       <c r="N263" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="264" spans="14:14">
       <c r="N264" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="265" spans="14:14">
       <c r="N265" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="266" spans="14:14">
       <c r="N266" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="267" spans="14:14">
       <c r="N267" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="268" spans="14:14">
       <c r="N268" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="269" spans="14:14">
       <c r="N269" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="270" spans="14:14">
       <c r="N270" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="271" spans="14:14">
       <c r="N271" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="272" spans="14:14">
       <c r="N272" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="273" spans="14:14">
       <c r="N273" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="274" spans="14:14">
       <c r="N274" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="275" spans="14:14">
       <c r="N275" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="276" spans="14:14">
       <c r="N276" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="277" spans="14:14">
       <c r="N277" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="14:14">
       <c r="N278" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="279" spans="14:14">
       <c r="N279" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="14:14">
       <c r="N280" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="281" spans="14:14">
       <c r="N281" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="282" spans="14:14">
       <c r="N282" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="283" spans="14:14">
       <c r="N283" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="284" spans="14:14">
       <c r="N284" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="285" spans="14:14">
       <c r="N285" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="286" spans="14:14">
       <c r="N286" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="287" spans="14:14">
       <c r="N287" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="288" spans="14:14">
       <c r="N288" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="289" spans="14:14">
       <c r="N289" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="611">
   <si>
     <t>alias</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2405,7 +2408,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2449,7 +2452,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2476,7 +2479,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3193,6 +3196,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3217,27 +3225,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3260,122 +3268,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3402,120 +3410,120 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -3556,1525 +3564,1525 @@
   <sheetData>
     <row r="1" spans="5:20">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="T1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="5:20">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="T2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="5:20">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="T3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="5:20">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="5:20">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="5:20">
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="5:20">
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="5:20">
       <c r="N8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="5:20">
       <c r="N9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="5:20">
       <c r="N10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="5:20">
       <c r="N11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="5:20">
       <c r="N12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="5:20">
       <c r="N13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="5:20">
       <c r="N14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="5:20">
       <c r="N15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="5:20">
       <c r="N16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="14:14">
       <c r="N17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="14:14">
       <c r="N18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="14:14">
       <c r="N21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="14:14">
       <c r="N22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="14:14">
       <c r="N25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="14:14">
       <c r="N26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="14:14">
       <c r="N27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="14:14">
       <c r="N28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="14:14">
       <c r="N29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="14:14">
       <c r="N30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="14:14">
       <c r="N31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="14:14">
       <c r="N32" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="14:14">
       <c r="N33" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="14:14">
       <c r="N34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="14:14">
       <c r="N35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="14:14">
       <c r="N36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="14:14">
       <c r="N37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="14:14">
       <c r="N38" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="14:14">
       <c r="N39" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="14:14">
       <c r="N40" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="14:14">
       <c r="N41" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="14:14">
       <c r="N42" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="14:14">
       <c r="N43" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="14:14">
       <c r="N44" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="14:14">
       <c r="N45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="14:14">
       <c r="N46" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="14:14">
       <c r="N47" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="14:14">
       <c r="N48" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="14:14">
       <c r="N76" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="14:14">
       <c r="N77" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="14:14">
       <c r="N78" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="14:14">
       <c r="N79" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="14:14">
       <c r="N80" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="14:14">
       <c r="N81" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="14:14">
       <c r="N82" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="14:14">
       <c r="N87" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="14:14">
       <c r="N88" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="14:14">
       <c r="N89" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="14:14">
       <c r="N90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="14:14">
       <c r="N91" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="14:14">
       <c r="N92" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="14:14">
       <c r="N93" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="14:14">
       <c r="N94" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="14:14">
       <c r="N95" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="14:14">
       <c r="N96" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="14:14">
       <c r="N97" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="14:14">
       <c r="N98" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="14:14">
       <c r="N99" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="100" spans="14:14">
       <c r="N100" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="14:14">
       <c r="N101" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="102" spans="14:14">
       <c r="N102" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="14:14">
       <c r="N103" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="14:14">
       <c r="N104" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="14:14">
       <c r="N105" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="14:14">
       <c r="N106" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" spans="14:14">
       <c r="N107" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="14:14">
       <c r="N108" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="14:14">
       <c r="N109" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="14:14">
       <c r="N110" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="14:14">
       <c r="N111" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="14:14">
       <c r="N112" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="14:14">
       <c r="N113" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="14:14">
       <c r="N114" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="14:14">
       <c r="N115" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="14:14">
       <c r="N116" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="14:14">
       <c r="N117" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="14:14">
       <c r="N118" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="14:14">
       <c r="N119" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="14:14">
       <c r="N120" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="14:14">
       <c r="N121" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" spans="14:14">
       <c r="N122" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="14:14">
       <c r="N123" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="14:14">
       <c r="N124" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="14:14">
       <c r="N125" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" spans="14:14">
       <c r="N126" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="14:14">
       <c r="N127" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128" spans="14:14">
       <c r="N128" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="14:14">
       <c r="N129" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" spans="14:14">
       <c r="N130" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="131" spans="14:14">
       <c r="N131" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" spans="14:14">
       <c r="N132" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="14:14">
       <c r="N133" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" spans="14:14">
       <c r="N134" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" spans="14:14">
       <c r="N135" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="14:14">
       <c r="N136" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="14:14">
       <c r="N137" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="14:14">
       <c r="N138" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="139" spans="14:14">
       <c r="N139" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="14:14">
       <c r="N140" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="14:14">
       <c r="N141" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="142" spans="14:14">
       <c r="N142" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="14:14">
       <c r="N143" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="14:14">
       <c r="N144" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="14:14">
       <c r="N145" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" spans="14:14">
       <c r="N146" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" spans="14:14">
       <c r="N147" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="148" spans="14:14">
       <c r="N148" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="14:14">
       <c r="N149" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="14:14">
       <c r="N150" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="151" spans="14:14">
       <c r="N151" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="152" spans="14:14">
       <c r="N152" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="153" spans="14:14">
       <c r="N153" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="14:14">
       <c r="N154" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="155" spans="14:14">
       <c r="N155" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="156" spans="14:14">
       <c r="N156" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" spans="14:14">
       <c r="N157" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" spans="14:14">
       <c r="N158" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="14:14">
       <c r="N159" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="14:14">
       <c r="N160" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" spans="14:14">
       <c r="N161" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="162" spans="14:14">
       <c r="N162" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="14:14">
       <c r="N163" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="14:14">
       <c r="N164" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="14:14">
       <c r="N165" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="14:14">
       <c r="N166" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="167" spans="14:14">
       <c r="N167" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="168" spans="14:14">
       <c r="N168" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="14:14">
       <c r="N169" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="170" spans="14:14">
       <c r="N170" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="14:14">
       <c r="N171" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="14:14">
       <c r="N172" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="14:14">
       <c r="N173" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="174" spans="14:14">
       <c r="N174" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="14:14">
       <c r="N175" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="176" spans="14:14">
       <c r="N176" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" spans="14:14">
       <c r="N177" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" spans="14:14">
       <c r="N178" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" spans="14:14">
       <c r="N179" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="14:14">
       <c r="N180" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="14:14">
       <c r="N181" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="14:14">
       <c r="N182" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="14:14">
       <c r="N183" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="14:14">
       <c r="N184" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="185" spans="14:14">
       <c r="N185" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="186" spans="14:14">
       <c r="N186" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" spans="14:14">
       <c r="N187" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="14:14">
       <c r="N188" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" spans="14:14">
       <c r="N189" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" spans="14:14">
       <c r="N190" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" spans="14:14">
       <c r="N191" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" spans="14:14">
       <c r="N192" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" spans="14:14">
       <c r="N193" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" spans="14:14">
       <c r="N194" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="195" spans="14:14">
       <c r="N195" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="196" spans="14:14">
       <c r="N196" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="197" spans="14:14">
       <c r="N197" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="14:14">
       <c r="N198" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="199" spans="14:14">
       <c r="N199" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="200" spans="14:14">
       <c r="N200" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="201" spans="14:14">
       <c r="N201" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="202" spans="14:14">
       <c r="N202" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="203" spans="14:14">
       <c r="N203" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="204" spans="14:14">
       <c r="N204" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="205" spans="14:14">
       <c r="N205" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="206" spans="14:14">
       <c r="N206" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="207" spans="14:14">
       <c r="N207" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="208" spans="14:14">
       <c r="N208" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="209" spans="14:14">
       <c r="N209" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="210" spans="14:14">
       <c r="N210" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="211" spans="14:14">
       <c r="N211" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="212" spans="14:14">
       <c r="N212" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="213" spans="14:14">
       <c r="N213" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="214" spans="14:14">
       <c r="N214" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="215" spans="14:14">
       <c r="N215" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="216" spans="14:14">
       <c r="N216" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="217" spans="14:14">
       <c r="N217" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="218" spans="14:14">
       <c r="N218" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="219" spans="14:14">
       <c r="N219" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="220" spans="14:14">
       <c r="N220" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="221" spans="14:14">
       <c r="N221" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="222" spans="14:14">
       <c r="N222" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="223" spans="14:14">
       <c r="N223" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="224" spans="14:14">
       <c r="N224" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="225" spans="14:14">
       <c r="N225" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="226" spans="14:14">
       <c r="N226" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="227" spans="14:14">
       <c r="N227" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="228" spans="14:14">
       <c r="N228" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="229" spans="14:14">
       <c r="N229" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="230" spans="14:14">
       <c r="N230" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="231" spans="14:14">
       <c r="N231" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="232" spans="14:14">
       <c r="N232" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="233" spans="14:14">
       <c r="N233" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="234" spans="14:14">
       <c r="N234" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="235" spans="14:14">
       <c r="N235" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="236" spans="14:14">
       <c r="N236" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="237" spans="14:14">
       <c r="N237" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="238" spans="14:14">
       <c r="N238" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="239" spans="14:14">
       <c r="N239" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="240" spans="14:14">
       <c r="N240" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="241" spans="14:14">
       <c r="N241" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="242" spans="14:14">
       <c r="N242" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="243" spans="14:14">
       <c r="N243" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="14:14">
       <c r="N244" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="245" spans="14:14">
       <c r="N245" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="246" spans="14:14">
       <c r="N246" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="247" spans="14:14">
       <c r="N247" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="248" spans="14:14">
       <c r="N248" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="249" spans="14:14">
       <c r="N249" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="250" spans="14:14">
       <c r="N250" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="251" spans="14:14">
       <c r="N251" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="252" spans="14:14">
       <c r="N252" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="253" spans="14:14">
       <c r="N253" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="254" spans="14:14">
       <c r="N254" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="255" spans="14:14">
       <c r="N255" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="256" spans="14:14">
       <c r="N256" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="257" spans="14:14">
       <c r="N257" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="258" spans="14:14">
       <c r="N258" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="259" spans="14:14">
       <c r="N259" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="260" spans="14:14">
       <c r="N260" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="261" spans="14:14">
       <c r="N261" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="262" spans="14:14">
       <c r="N262" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="263" spans="14:14">
       <c r="N263" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="264" spans="14:14">
       <c r="N264" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="265" spans="14:14">
       <c r="N265" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="266" spans="14:14">
       <c r="N266" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="267" spans="14:14">
       <c r="N267" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="268" spans="14:14">
       <c r="N268" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="14:14">
       <c r="N269" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="270" spans="14:14">
       <c r="N270" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="271" spans="14:14">
       <c r="N271" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="272" spans="14:14">
       <c r="N272" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="273" spans="14:14">
       <c r="N273" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="274" spans="14:14">
       <c r="N274" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="275" spans="14:14">
       <c r="N275" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="276" spans="14:14">
       <c r="N276" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="277" spans="14:14">
       <c r="N277" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="278" spans="14:14">
       <c r="N278" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="14:14">
       <c r="N279" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="280" spans="14:14">
       <c r="N280" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="281" spans="14:14">
       <c r="N281" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="282" spans="14:14">
       <c r="N282" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="283" spans="14:14">
       <c r="N283" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="284" spans="14:14">
       <c r="N284" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="285" spans="14:14">
       <c r="N285" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="286" spans="14:14">
       <c r="N286" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="287" spans="14:14">
       <c r="N287" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="288" spans="14:14">
       <c r="N288" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="289" spans="14:14">
       <c r="N289" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="612">
   <si>
     <t>alias</t>
   </si>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2408,7 +2411,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2452,7 +2455,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +2482,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3201,6 +3204,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3225,27 +3233,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3268,122 +3276,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3410,120 +3418,120 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -3564,1525 +3572,1525 @@
   <sheetData>
     <row r="1" spans="5:20">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="T1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="5:20">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="T2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="5:20">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="T3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="5:20">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="5:20">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="5:20">
       <c r="E6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="5:20">
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="5:20">
       <c r="N8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="5:20">
       <c r="N9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="5:20">
       <c r="N10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="5:20">
       <c r="N11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="5:20">
       <c r="N12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="5:20">
       <c r="N13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="5:20">
       <c r="N14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="5:20">
       <c r="N15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="5:20">
       <c r="N16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="14:14">
       <c r="N17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="14:14">
       <c r="N18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="14:14">
       <c r="N21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="14:14">
       <c r="N22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="14:14">
       <c r="N25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="14:14">
       <c r="N26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="14:14">
       <c r="N27" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="14:14">
       <c r="N28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="14:14">
       <c r="N29" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="14:14">
       <c r="N30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="14:14">
       <c r="N31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="14:14">
       <c r="N32" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="14:14">
       <c r="N33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="14:14">
       <c r="N34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="14:14">
       <c r="N35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="14:14">
       <c r="N36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="14:14">
       <c r="N37" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="14:14">
       <c r="N38" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="14:14">
       <c r="N39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="14:14">
       <c r="N40" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="14:14">
       <c r="N41" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="14:14">
       <c r="N42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="14:14">
       <c r="N43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="14:14">
       <c r="N44" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="14:14">
       <c r="N45" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="14:14">
       <c r="N46" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="14:14">
       <c r="N47" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="14:14">
       <c r="N48" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="14:14">
       <c r="N76" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77" spans="14:14">
       <c r="N77" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="14:14">
       <c r="N78" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="14:14">
       <c r="N79" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80" spans="14:14">
       <c r="N80" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="14:14">
       <c r="N81" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="82" spans="14:14">
       <c r="N82" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="14:14">
       <c r="N87" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="14:14">
       <c r="N88" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="14:14">
       <c r="N89" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="14:14">
       <c r="N90" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="14:14">
       <c r="N91" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="14:14">
       <c r="N92" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="14:14">
       <c r="N93" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="94" spans="14:14">
       <c r="N94" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="95" spans="14:14">
       <c r="N95" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="14:14">
       <c r="N96" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="14:14">
       <c r="N97" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="14:14">
       <c r="N98" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="14:14">
       <c r="N99" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="14:14">
       <c r="N100" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="14:14">
       <c r="N101" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="14:14">
       <c r="N102" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="103" spans="14:14">
       <c r="N103" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="14:14">
       <c r="N104" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105" spans="14:14">
       <c r="N105" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106" spans="14:14">
       <c r="N106" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="14:14">
       <c r="N107" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="14:14">
       <c r="N108" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="14:14">
       <c r="N109" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="110" spans="14:14">
       <c r="N110" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="111" spans="14:14">
       <c r="N111" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="112" spans="14:14">
       <c r="N112" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="113" spans="14:14">
       <c r="N113" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" spans="14:14">
       <c r="N114" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="115" spans="14:14">
       <c r="N115" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="116" spans="14:14">
       <c r="N116" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" spans="14:14">
       <c r="N117" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="118" spans="14:14">
       <c r="N118" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="14:14">
       <c r="N119" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="14:14">
       <c r="N120" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="121" spans="14:14">
       <c r="N121" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="14:14">
       <c r="N122" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="123" spans="14:14">
       <c r="N123" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="14:14">
       <c r="N124" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="14:14">
       <c r="N125" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="14:14">
       <c r="N126" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="14:14">
       <c r="N127" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="14:14">
       <c r="N128" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129" spans="14:14">
       <c r="N129" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="130" spans="14:14">
       <c r="N130" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="131" spans="14:14">
       <c r="N131" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="14:14">
       <c r="N132" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="133" spans="14:14">
       <c r="N133" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="14:14">
       <c r="N134" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135" spans="14:14">
       <c r="N135" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="14:14">
       <c r="N136" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="14:14">
       <c r="N137" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="138" spans="14:14">
       <c r="N138" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="14:14">
       <c r="N139" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="140" spans="14:14">
       <c r="N140" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="141" spans="14:14">
       <c r="N141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="14:14">
       <c r="N142" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="143" spans="14:14">
       <c r="N143" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="14:14">
       <c r="N144" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="14:14">
       <c r="N145" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="146" spans="14:14">
       <c r="N146" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="147" spans="14:14">
       <c r="N147" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="148" spans="14:14">
       <c r="N148" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="14:14">
       <c r="N149" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="150" spans="14:14">
       <c r="N150" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="151" spans="14:14">
       <c r="N151" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="152" spans="14:14">
       <c r="N152" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="153" spans="14:14">
       <c r="N153" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154" spans="14:14">
       <c r="N154" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="155" spans="14:14">
       <c r="N155" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="156" spans="14:14">
       <c r="N156" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="157" spans="14:14">
       <c r="N157" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="158" spans="14:14">
       <c r="N158" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="159" spans="14:14">
       <c r="N159" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="160" spans="14:14">
       <c r="N160" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="161" spans="14:14">
       <c r="N161" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" spans="14:14">
       <c r="N162" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="163" spans="14:14">
       <c r="N163" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="14:14">
       <c r="N164" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="165" spans="14:14">
       <c r="N165" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="166" spans="14:14">
       <c r="N166" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="167" spans="14:14">
       <c r="N167" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="168" spans="14:14">
       <c r="N168" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="169" spans="14:14">
       <c r="N169" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="170" spans="14:14">
       <c r="N170" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="14:14">
       <c r="N171" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="172" spans="14:14">
       <c r="N172" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="173" spans="14:14">
       <c r="N173" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="174" spans="14:14">
       <c r="N174" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="175" spans="14:14">
       <c r="N175" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="176" spans="14:14">
       <c r="N176" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="177" spans="14:14">
       <c r="N177" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="178" spans="14:14">
       <c r="N178" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="179" spans="14:14">
       <c r="N179" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="180" spans="14:14">
       <c r="N180" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="14:14">
       <c r="N181" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="182" spans="14:14">
       <c r="N182" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="183" spans="14:14">
       <c r="N183" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="184" spans="14:14">
       <c r="N184" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="185" spans="14:14">
       <c r="N185" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="186" spans="14:14">
       <c r="N186" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="187" spans="14:14">
       <c r="N187" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="188" spans="14:14">
       <c r="N188" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="189" spans="14:14">
       <c r="N189" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="190" spans="14:14">
       <c r="N190" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="191" spans="14:14">
       <c r="N191" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="192" spans="14:14">
       <c r="N192" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="193" spans="14:14">
       <c r="N193" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="194" spans="14:14">
       <c r="N194" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="195" spans="14:14">
       <c r="N195" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="196" spans="14:14">
       <c r="N196" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="197" spans="14:14">
       <c r="N197" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="198" spans="14:14">
       <c r="N198" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="199" spans="14:14">
       <c r="N199" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="200" spans="14:14">
       <c r="N200" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="14:14">
       <c r="N201" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="202" spans="14:14">
       <c r="N202" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="203" spans="14:14">
       <c r="N203" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="204" spans="14:14">
       <c r="N204" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="205" spans="14:14">
       <c r="N205" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="206" spans="14:14">
       <c r="N206" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="207" spans="14:14">
       <c r="N207" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="208" spans="14:14">
       <c r="N208" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="209" spans="14:14">
       <c r="N209" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="210" spans="14:14">
       <c r="N210" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="211" spans="14:14">
       <c r="N211" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="212" spans="14:14">
       <c r="N212" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="213" spans="14:14">
       <c r="N213" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="214" spans="14:14">
       <c r="N214" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="215" spans="14:14">
       <c r="N215" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="216" spans="14:14">
       <c r="N216" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="217" spans="14:14">
       <c r="N217" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="218" spans="14:14">
       <c r="N218" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="219" spans="14:14">
       <c r="N219" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="220" spans="14:14">
       <c r="N220" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="221" spans="14:14">
       <c r="N221" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="222" spans="14:14">
       <c r="N222" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="223" spans="14:14">
       <c r="N223" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="224" spans="14:14">
       <c r="N224" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="225" spans="14:14">
       <c r="N225" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="226" spans="14:14">
       <c r="N226" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="227" spans="14:14">
       <c r="N227" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="228" spans="14:14">
       <c r="N228" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="229" spans="14:14">
       <c r="N229" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="230" spans="14:14">
       <c r="N230" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="231" spans="14:14">
       <c r="N231" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="232" spans="14:14">
       <c r="N232" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="233" spans="14:14">
       <c r="N233" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="234" spans="14:14">
       <c r="N234" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="235" spans="14:14">
       <c r="N235" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="236" spans="14:14">
       <c r="N236" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="237" spans="14:14">
       <c r="N237" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="238" spans="14:14">
       <c r="N238" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="239" spans="14:14">
       <c r="N239" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="240" spans="14:14">
       <c r="N240" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="241" spans="14:14">
       <c r="N241" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="242" spans="14:14">
       <c r="N242" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="243" spans="14:14">
       <c r="N243" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="244" spans="14:14">
       <c r="N244" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="245" spans="14:14">
       <c r="N245" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="246" spans="14:14">
       <c r="N246" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="247" spans="14:14">
       <c r="N247" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="248" spans="14:14">
       <c r="N248" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="249" spans="14:14">
       <c r="N249" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="250" spans="14:14">
       <c r="N250" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="251" spans="14:14">
       <c r="N251" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="252" spans="14:14">
       <c r="N252" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="253" spans="14:14">
       <c r="N253" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="254" spans="14:14">
       <c r="N254" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="255" spans="14:14">
       <c r="N255" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="256" spans="14:14">
       <c r="N256" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="257" spans="14:14">
       <c r="N257" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="258" spans="14:14">
       <c r="N258" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="259" spans="14:14">
       <c r="N259" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="260" spans="14:14">
       <c r="N260" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="261" spans="14:14">
       <c r="N261" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="262" spans="14:14">
       <c r="N262" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="263" spans="14:14">
       <c r="N263" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="264" spans="14:14">
       <c r="N264" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="265" spans="14:14">
       <c r="N265" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="266" spans="14:14">
       <c r="N266" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="267" spans="14:14">
       <c r="N267" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="14:14">
       <c r="N268" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="269" spans="14:14">
       <c r="N269" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="270" spans="14:14">
       <c r="N270" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="271" spans="14:14">
       <c r="N271" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="272" spans="14:14">
       <c r="N272" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="273" spans="14:14">
       <c r="N273" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="274" spans="14:14">
       <c r="N274" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="275" spans="14:14">
       <c r="N275" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="276" spans="14:14">
       <c r="N276" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="277" spans="14:14">
       <c r="N277" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="14:14">
       <c r="N278" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="279" spans="14:14">
       <c r="N279" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="280" spans="14:14">
       <c r="N280" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="281" spans="14:14">
       <c r="N281" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="282" spans="14:14">
       <c r="N282" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="283" spans="14:14">
       <c r="N283" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="284" spans="14:14">
       <c r="N284" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="285" spans="14:14">
       <c r="N285" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="286" spans="14:14">
       <c r="N286" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="287" spans="14:14">
       <c r="N287" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="288" spans="14:14">
       <c r="N288" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="289" spans="14:14">
       <c r="N289" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="613">
   <si>
     <t>alias</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2411,7 +2414,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2455,7 +2458,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2482,7 +2485,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3209,6 +3212,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3233,27 +3241,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3276,122 +3284,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3418,120 +3426,120 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -3572,1525 +3580,1525 @@
   <sheetData>
     <row r="1" spans="5:20">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="T1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="5:20">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="5:20">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="T3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="5:20">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="5:20">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="5:20">
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="5:20">
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="5:20">
       <c r="N8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="5:20">
       <c r="N9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="5:20">
       <c r="N10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="5:20">
       <c r="N11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="5:20">
       <c r="N12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="5:20">
       <c r="N13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="5:20">
       <c r="N14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="5:20">
       <c r="N15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="5:20">
       <c r="N16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="14:14">
       <c r="N17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="14:14">
       <c r="N18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="14:14">
       <c r="N21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="14:14">
       <c r="N22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="14:14">
       <c r="N25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="14:14">
       <c r="N26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="14:14">
       <c r="N27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="14:14">
       <c r="N28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="14:14">
       <c r="N29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="14:14">
       <c r="N30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="14:14">
       <c r="N31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="14:14">
       <c r="N32" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="14:14">
       <c r="N33" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="14:14">
       <c r="N34" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="14:14">
       <c r="N35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="14:14">
       <c r="N36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="14:14">
       <c r="N37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="14:14">
       <c r="N38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="14:14">
       <c r="N39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="14:14">
       <c r="N40" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="14:14">
       <c r="N41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="14:14">
       <c r="N42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="14:14">
       <c r="N43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="14:14">
       <c r="N44" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="14:14">
       <c r="N45" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="14:14">
       <c r="N46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="14:14">
       <c r="N47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="14:14">
       <c r="N48" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="14:14">
       <c r="N76" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="14:14">
       <c r="N77" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="14:14">
       <c r="N78" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="14:14">
       <c r="N79" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="14:14">
       <c r="N80" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="14:14">
       <c r="N81" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="14:14">
       <c r="N82" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="14:14">
       <c r="N87" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="14:14">
       <c r="N88" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="14:14">
       <c r="N89" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="14:14">
       <c r="N90" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="14:14">
       <c r="N91" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="14:14">
       <c r="N92" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="14:14">
       <c r="N93" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="94" spans="14:14">
       <c r="N94" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="14:14">
       <c r="N95" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="14:14">
       <c r="N96" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="14:14">
       <c r="N97" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="14:14">
       <c r="N98" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="14:14">
       <c r="N99" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="14:14">
       <c r="N100" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="14:14">
       <c r="N101" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="14:14">
       <c r="N102" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" spans="14:14">
       <c r="N103" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="104" spans="14:14">
       <c r="N104" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105" spans="14:14">
       <c r="N105" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="14:14">
       <c r="N106" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="14:14">
       <c r="N107" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="14:14">
       <c r="N108" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="14:14">
       <c r="N109" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="14:14">
       <c r="N110" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="14:14">
       <c r="N111" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" spans="14:14">
       <c r="N112" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="14:14">
       <c r="N113" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="114" spans="14:14">
       <c r="N114" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="14:14">
       <c r="N115" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="116" spans="14:14">
       <c r="N116" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="117" spans="14:14">
       <c r="N117" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="14:14">
       <c r="N118" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="14:14">
       <c r="N119" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="14:14">
       <c r="N120" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="14:14">
       <c r="N121" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="14:14">
       <c r="N122" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="14:14">
       <c r="N123" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="124" spans="14:14">
       <c r="N124" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="14:14">
       <c r="N125" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="14:14">
       <c r="N126" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="14:14">
       <c r="N127" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128" spans="14:14">
       <c r="N128" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" spans="14:14">
       <c r="N129" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="130" spans="14:14">
       <c r="N130" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="14:14">
       <c r="N131" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="132" spans="14:14">
       <c r="N132" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133" spans="14:14">
       <c r="N133" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="134" spans="14:14">
       <c r="N134" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="135" spans="14:14">
       <c r="N135" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="14:14">
       <c r="N136" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="14:14">
       <c r="N137" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="14:14">
       <c r="N138" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="14:14">
       <c r="N139" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="140" spans="14:14">
       <c r="N140" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="14:14">
       <c r="N141" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="142" spans="14:14">
       <c r="N142" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="14:14">
       <c r="N143" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="144" spans="14:14">
       <c r="N144" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="145" spans="14:14">
       <c r="N145" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="146" spans="14:14">
       <c r="N146" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="147" spans="14:14">
       <c r="N147" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="148" spans="14:14">
       <c r="N148" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149" spans="14:14">
       <c r="N149" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="150" spans="14:14">
       <c r="N150" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="151" spans="14:14">
       <c r="N151" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="152" spans="14:14">
       <c r="N152" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="153" spans="14:14">
       <c r="N153" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="154" spans="14:14">
       <c r="N154" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="155" spans="14:14">
       <c r="N155" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="156" spans="14:14">
       <c r="N156" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="14:14">
       <c r="N157" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="158" spans="14:14">
       <c r="N158" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="159" spans="14:14">
       <c r="N159" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="160" spans="14:14">
       <c r="N160" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="161" spans="14:14">
       <c r="N161" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="162" spans="14:14">
       <c r="N162" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="163" spans="14:14">
       <c r="N163" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="164" spans="14:14">
       <c r="N164" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="165" spans="14:14">
       <c r="N165" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="166" spans="14:14">
       <c r="N166" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="167" spans="14:14">
       <c r="N167" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="168" spans="14:14">
       <c r="N168" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="169" spans="14:14">
       <c r="N169" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="170" spans="14:14">
       <c r="N170" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="171" spans="14:14">
       <c r="N171" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="172" spans="14:14">
       <c r="N172" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="173" spans="14:14">
       <c r="N173" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="174" spans="14:14">
       <c r="N174" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="175" spans="14:14">
       <c r="N175" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" spans="14:14">
       <c r="N176" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="177" spans="14:14">
       <c r="N177" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="178" spans="14:14">
       <c r="N178" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="179" spans="14:14">
       <c r="N179" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="180" spans="14:14">
       <c r="N180" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="181" spans="14:14">
       <c r="N181" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182" spans="14:14">
       <c r="N182" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="183" spans="14:14">
       <c r="N183" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="184" spans="14:14">
       <c r="N184" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="185" spans="14:14">
       <c r="N185" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="186" spans="14:14">
       <c r="N186" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="187" spans="14:14">
       <c r="N187" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="188" spans="14:14">
       <c r="N188" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="189" spans="14:14">
       <c r="N189" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="190" spans="14:14">
       <c r="N190" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="191" spans="14:14">
       <c r="N191" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="192" spans="14:14">
       <c r="N192" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="193" spans="14:14">
       <c r="N193" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="194" spans="14:14">
       <c r="N194" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195" spans="14:14">
       <c r="N195" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="196" spans="14:14">
       <c r="N196" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="197" spans="14:14">
       <c r="N197" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="198" spans="14:14">
       <c r="N198" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="199" spans="14:14">
       <c r="N199" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="200" spans="14:14">
       <c r="N200" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201" spans="14:14">
       <c r="N201" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="202" spans="14:14">
       <c r="N202" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="203" spans="14:14">
       <c r="N203" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="204" spans="14:14">
       <c r="N204" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="205" spans="14:14">
       <c r="N205" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="206" spans="14:14">
       <c r="N206" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="207" spans="14:14">
       <c r="N207" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="208" spans="14:14">
       <c r="N208" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="209" spans="14:14">
       <c r="N209" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="210" spans="14:14">
       <c r="N210" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="211" spans="14:14">
       <c r="N211" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="212" spans="14:14">
       <c r="N212" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="213" spans="14:14">
       <c r="N213" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="214" spans="14:14">
       <c r="N214" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="215" spans="14:14">
       <c r="N215" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="216" spans="14:14">
       <c r="N216" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="217" spans="14:14">
       <c r="N217" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="218" spans="14:14">
       <c r="N218" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="219" spans="14:14">
       <c r="N219" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="220" spans="14:14">
       <c r="N220" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="221" spans="14:14">
       <c r="N221" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="222" spans="14:14">
       <c r="N222" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="223" spans="14:14">
       <c r="N223" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="224" spans="14:14">
       <c r="N224" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="225" spans="14:14">
       <c r="N225" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="226" spans="14:14">
       <c r="N226" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="227" spans="14:14">
       <c r="N227" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="228" spans="14:14">
       <c r="N228" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="229" spans="14:14">
       <c r="N229" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="230" spans="14:14">
       <c r="N230" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="231" spans="14:14">
       <c r="N231" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="232" spans="14:14">
       <c r="N232" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="233" spans="14:14">
       <c r="N233" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="234" spans="14:14">
       <c r="N234" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="235" spans="14:14">
       <c r="N235" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="236" spans="14:14">
       <c r="N236" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="237" spans="14:14">
       <c r="N237" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="238" spans="14:14">
       <c r="N238" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="239" spans="14:14">
       <c r="N239" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="240" spans="14:14">
       <c r="N240" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="241" spans="14:14">
       <c r="N241" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="242" spans="14:14">
       <c r="N242" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="243" spans="14:14">
       <c r="N243" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="244" spans="14:14">
       <c r="N244" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="245" spans="14:14">
       <c r="N245" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="246" spans="14:14">
       <c r="N246" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="247" spans="14:14">
       <c r="N247" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="248" spans="14:14">
       <c r="N248" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="249" spans="14:14">
       <c r="N249" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="250" spans="14:14">
       <c r="N250" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="251" spans="14:14">
       <c r="N251" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="252" spans="14:14">
       <c r="N252" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="253" spans="14:14">
       <c r="N253" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="254" spans="14:14">
       <c r="N254" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="255" spans="14:14">
       <c r="N255" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="256" spans="14:14">
       <c r="N256" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="257" spans="14:14">
       <c r="N257" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="258" spans="14:14">
       <c r="N258" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="259" spans="14:14">
       <c r="N259" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="260" spans="14:14">
       <c r="N260" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="261" spans="14:14">
       <c r="N261" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="262" spans="14:14">
       <c r="N262" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="263" spans="14:14">
       <c r="N263" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="264" spans="14:14">
       <c r="N264" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="265" spans="14:14">
       <c r="N265" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="266" spans="14:14">
       <c r="N266" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="14:14">
       <c r="N267" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="268" spans="14:14">
       <c r="N268" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="269" spans="14:14">
       <c r="N269" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="270" spans="14:14">
       <c r="N270" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="271" spans="14:14">
       <c r="N271" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="272" spans="14:14">
       <c r="N272" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="273" spans="14:14">
       <c r="N273" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="274" spans="14:14">
       <c r="N274" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="275" spans="14:14">
       <c r="N275" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="276" spans="14:14">
       <c r="N276" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="277" spans="14:14">
       <c r="N277" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="278" spans="14:14">
       <c r="N278" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="279" spans="14:14">
       <c r="N279" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="280" spans="14:14">
       <c r="N280" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="281" spans="14:14">
       <c r="N281" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="282" spans="14:14">
       <c r="N282" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="283" spans="14:14">
       <c r="N283" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="284" spans="14:14">
       <c r="N284" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="285" spans="14:14">
       <c r="N285" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="286" spans="14:14">
       <c r="N286" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="287" spans="14:14">
       <c r="N287" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="288" spans="14:14">
       <c r="N288" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="289" spans="14:14">
       <c r="N289" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -30,14 +30,14 @@
     <definedName name="sampleorigin">'cv_sample'!$E$1:$E$7</definedName>
     <definedName name="sampletaxonname">'cv_sample'!$G$1:$G$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="wasthePDXmodelhumanised">'cv_sample'!$S$1:$S$3</definedName>
+    <definedName name="wasthepdxmodelhumanised">'cv_sample'!$S$1:$S$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="618">
   <si>
     <t>alias</t>
   </si>
@@ -870,7 +870,7 @@
     <t>not provided</t>
   </si>
   <si>
-    <t>sample origin</t>
+    <t>sample_origin</t>
   </si>
   <si>
     <t>(Mandatory) Sample origin from which data deposited was generated, e.g. engrafted tumor</t>
@@ -894,7 +894,7 @@
     <t>tissue fragment</t>
   </si>
   <si>
-    <t>sample material</t>
+    <t>sample_material</t>
   </si>
   <si>
     <t>(Mandatory) Sample material from which data deposited was generated, e.g. tissue fragment. if unknown please select "not provided".</t>
@@ -906,13 +906,13 @@
     <t>Homo sapiens/Mus musculus xenograft</t>
   </si>
   <si>
-    <t>sample taxon name</t>
+    <t>sample_taxon_name</t>
   </si>
   <si>
     <t>(Mandatory) This field indicates if a sample is derived from a patient or xenograft. the following two options are available: homo sapiens/mus musculus xenograft (sample is from a xenograft derived tumor/cell culture) or homo sapiens (sample is from a patient tumor/cell culture). please ensure the selected value here is identical to the value in the 'scientific name' column/field.</t>
   </si>
   <si>
-    <t>sample unique ID</t>
+    <t>sample_unique_id</t>
   </si>
   <si>
     <t>(Mandatory) Unique identifier of the pdx or tumor sample, e.g. crc00003</t>
@@ -927,31 +927,31 @@
     <t>Recurrent Neoplasm</t>
   </si>
   <si>
-    <t>patient tumor type</t>
+    <t>patient_tumor_type</t>
   </si>
   <si>
     <t>(Mandatory) For a primary sample (a tumor at the original site of origin), please select “primary neoplasm” . for a metastatic sample (a tumor that has spread from its original (primary) site of growth to another site, close to or distant from the primary site), please select “metastatic neoplasm” . for a recurring neoplasm sample (neoplasm returning after a period of remission at the same location), please select “recurrent neoplasm” . if unknown tumor type, please select “not provided”.</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>engrafted tumor sample passage</t>
+    <t>engrafted_tumor_sample_passage</t>
   </si>
   <si>
     <t>(Mandatory) If engrafted tumor sample, please indicate the passage from which the engrafted tumor sample was harvested (passage 0 must be the first engraftment in the mouse). please ensure you add a non-negative number greater than 0. if the sample origin is “patient tumor” please enter "not applicable". if passage number is unknown please enter "not provided”.</t>
   </si>
   <si>
-    <t>engrafted tumor collection site</t>
+    <t>engrafted_tumor_collection_site</t>
   </si>
   <si>
     <t>(Recommended) If the sample origin is “engrafted tumor”, please indicate the collection site from which the engrafted tumor sample was extracted (e.g. liver). please use terminology from ncit ontology: https://www.ebi.ac.uk/ols/ontologies/ncit. if unknown please select ncit term: “not available” ( http://purl.obolibrary.org/obo/ncit_c126101)”. if the sample origin is “patient tumor” please do not use this attribute.</t>
   </si>
   <si>
-    <t>patient tumor site of collection</t>
+    <t>patient_tumor_site_of_collection</t>
   </si>
   <si>
     <t>(Mandatory) Site of collection of the patient tissue sample which was extracted (can be different to primary site if it is a metastatic sample). please use ncit ontology, e.g. liver (http://purl.obolibrary.org/obo/ncit_c12392). if unknown please select ncit term: “not available” (http://purl.obolibrary.org/obo/ncit_c126101)</t>
@@ -1170,9 +1170,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1191,6 +1188,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1392,6 +1392,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1401,9 +1404,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1443,7 +1443,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1512,6 +1512,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1587,6 +1590,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1608,6 +1614,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1653,6 +1662,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1665,6 +1677,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1674,9 +1689,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1701,6 +1713,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1761,12 +1776,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1821,31 +1836,31 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>engraftment host strain name</t>
+    <t>engraftment_host_strain_name</t>
   </si>
   <si>
     <t>(Recommended) If the sample origin is “engrafted tumor”, please indicate the host mouse strain name from which the engrafted tumor sample was extracted (e.g. nod.cg-prkdcscid il2rgtm1wjl/szj). please use the following guidelines for the correct nomenclature format: http://www.informatics.jax.org/mgihome/nomen/strains.shtml#mice. if the sample origin is “patient tumor” please add "not applicable" and if unknown please add "not provided".</t>
   </si>
   <si>
-    <t>patient age at collection of tumor</t>
+    <t>patient_age_at_collection_of_tumor</t>
   </si>
   <si>
     <t>(Mandatory) Age in years of the patient when the tumor was extracted. please note this must be a whole number, e.g. 45</t>
   </si>
   <si>
-    <t>patient tumor diagnosis at time of collection</t>
+    <t>patient_tumor_diagnosis_at_time_of_collection</t>
   </si>
   <si>
     <t>(Mandatory) Patient tumor diagnosis at time of collection for engraftment in pdx model or organoid/cell derivation. please use terminology from ncit ontology: https://www.ebi.ac.uk/ols/ontologies/ncit - please note in ncit ontology, usually the “cancer” concept is represented with “malignant neoplasm”example: “lung cancer” is “malignant lung neoplasm” (http://purl.obolibrary.org/obo/ncit_c7377). if precise diagnosis is unknown, please use "neoplasm" (http://purl.obolibrary.org/obo/ncit_c3262)</t>
   </si>
   <si>
-    <t>patient tumor primary site</t>
+    <t>patient_tumor_primary_site</t>
   </si>
   <si>
     <t>(Mandatory) Site of the primary tumor where cancer originates (may not correspond to the site of the collected tissue sample). please use ncit ontology, e.g. colon (http://purl.obolibrary.org/obo/ncit_c12382). if unknown please select ncit term: “not available” ( http://purl.obolibrary.org/obo/ncit_c126101)</t>
@@ -1857,7 +1872,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>was the PDX model humanised?</t>
+    <t>was_the_pdx_model_humanised</t>
   </si>
   <si>
     <t>(Recommended) If the sample origin is “engrafted tumor”, please indicate if the host strain, from which the sample was extracted, has undergone human immune system reconstitution, using “yes” (model humanised) or “no” (model not humanised). if the sample origin is “patient tumor” please select "not applicable".</t>
@@ -1872,7 +1887,7 @@
     <t>not available</t>
   </si>
   <si>
-    <t>patient sex</t>
+    <t>patient_sex</t>
   </si>
   <si>
     <t>(Mandatory) Sex of the patient from which the tumor was extracted. if sex is unknown please select “not available”</t>
@@ -3459,25 +3474,25 @@
         <v>304</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="150" customHeight="1">
@@ -3521,25 +3536,25 @@
         <v>305</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -3560,7 +3575,7 @@
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
-      <formula1>wasthePDXmodelhumanised</formula1>
+      <formula1>wasthepdxmodelhumanised</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
       <formula1>patientsex</formula1>
@@ -3572,7 +3587,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:T289"/>
+  <dimension ref="E1:T294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3595,10 +3610,10 @@
         <v>306</v>
       </c>
       <c r="S1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="T1" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="5:20">
@@ -3618,10 +3633,10 @@
         <v>307</v>
       </c>
       <c r="S2" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="T2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="5:20">
@@ -3638,10 +3653,10 @@
         <v>308</v>
       </c>
       <c r="S3" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="T3" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="5:20">
@@ -5093,12 +5108,37 @@
     </row>
     <row r="288" spans="14:14">
       <c r="N288" t="s">
-        <v>276</v>
+        <v>593</v>
       </c>
     </row>
     <row r="289" spans="14:14">
       <c r="N289" t="s">
-        <v>593</v>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="290" spans="14:14">
+      <c r="N290" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="291" spans="14:14">
+      <c r="N291" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="292" spans="14:14">
+      <c r="N292" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="293" spans="14:14">
+      <c r="N293" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="294" spans="14:14">
+      <c r="N294" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -30,14 +30,14 @@
     <definedName name="sampleorigin">'cv_sample'!$E$1:$E$7</definedName>
     <definedName name="sampletaxonname">'cv_sample'!$G$1:$G$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="wasthepdxmodelhumanised">'cv_sample'!$S$1:$S$3</definedName>
+    <definedName name="wasthePDXmodelhumanised">'cv_sample'!$S$1:$S$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="613">
   <si>
     <t>alias</t>
   </si>
@@ -870,7 +870,7 @@
     <t>not provided</t>
   </si>
   <si>
-    <t>sample_origin</t>
+    <t>sample origin</t>
   </si>
   <si>
     <t>(Mandatory) Sample origin from which data deposited was generated, e.g. engrafted tumor</t>
@@ -894,7 +894,7 @@
     <t>tissue fragment</t>
   </si>
   <si>
-    <t>sample_material</t>
+    <t>sample material</t>
   </si>
   <si>
     <t>(Mandatory) Sample material from which data deposited was generated, e.g. tissue fragment. if unknown please select "not provided".</t>
@@ -906,13 +906,13 @@
     <t>Homo sapiens/Mus musculus xenograft</t>
   </si>
   <si>
-    <t>sample_taxon_name</t>
+    <t>sample taxon name</t>
   </si>
   <si>
     <t>(Mandatory) This field indicates if a sample is derived from a patient or xenograft. the following two options are available: homo sapiens/mus musculus xenograft (sample is from a xenograft derived tumor/cell culture) or homo sapiens (sample is from a patient tumor/cell culture). please ensure the selected value here is identical to the value in the 'scientific name' column/field.</t>
   </si>
   <si>
-    <t>sample_unique_id</t>
+    <t>sample unique ID</t>
   </si>
   <si>
     <t>(Mandatory) Unique identifier of the pdx or tumor sample, e.g. crc00003</t>
@@ -927,31 +927,31 @@
     <t>Recurrent Neoplasm</t>
   </si>
   <si>
-    <t>patient_tumor_type</t>
+    <t>patient tumor type</t>
   </si>
   <si>
     <t>(Mandatory) For a primary sample (a tumor at the original site of origin), please select “primary neoplasm” . for a metastatic sample (a tumor that has spread from its original (primary) site of growth to another site, close to or distant from the primary site), please select “metastatic neoplasm” . for a recurring neoplasm sample (neoplasm returning after a period of remission at the same location), please select “recurrent neoplasm” . if unknown tumor type, please select “not provided”.</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>engrafted_tumor_sample_passage</t>
+    <t>engrafted tumor sample passage</t>
   </si>
   <si>
     <t>(Mandatory) If engrafted tumor sample, please indicate the passage from which the engrafted tumor sample was harvested (passage 0 must be the first engraftment in the mouse). please ensure you add a non-negative number greater than 0. if the sample origin is “patient tumor” please enter "not applicable". if passage number is unknown please enter "not provided”.</t>
   </si>
   <si>
-    <t>engrafted_tumor_collection_site</t>
+    <t>engrafted tumor collection site</t>
   </si>
   <si>
     <t>(Recommended) If the sample origin is “engrafted tumor”, please indicate the collection site from which the engrafted tumor sample was extracted (e.g. liver). please use terminology from ncit ontology: https://www.ebi.ac.uk/ols/ontologies/ncit. if unknown please select ncit term: “not available” ( http://purl.obolibrary.org/obo/ncit_c126101)”. if the sample origin is “patient tumor” please do not use this attribute.</t>
   </si>
   <si>
-    <t>patient_tumor_site_of_collection</t>
+    <t>patient tumor site of collection</t>
   </si>
   <si>
     <t>(Mandatory) Site of collection of the patient tissue sample which was extracted (can be different to primary site if it is a metastatic sample). please use ncit ontology, e.g. liver (http://purl.obolibrary.org/obo/ncit_c12392). if unknown please select ncit term: “not available” (http://purl.obolibrary.org/obo/ncit_c126101)</t>
@@ -1170,6 +1170,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1188,9 +1191,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1392,9 +1392,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1404,6 +1401,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1443,7 +1443,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1512,9 +1512,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1590,9 +1587,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1614,9 +1608,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1662,9 +1653,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1677,9 +1665,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1689,6 +1674,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1713,9 +1701,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1776,12 +1761,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1836,31 +1821,31 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>engraftment_host_strain_name</t>
+    <t>engraftment host strain name</t>
   </si>
   <si>
     <t>(Recommended) If the sample origin is “engrafted tumor”, please indicate the host mouse strain name from which the engrafted tumor sample was extracted (e.g. nod.cg-prkdcscid il2rgtm1wjl/szj). please use the following guidelines for the correct nomenclature format: http://www.informatics.jax.org/mgihome/nomen/strains.shtml#mice. if the sample origin is “patient tumor” please add "not applicable" and if unknown please add "not provided".</t>
   </si>
   <si>
-    <t>patient_age_at_collection_of_tumor</t>
+    <t>patient age at collection of tumor</t>
   </si>
   <si>
     <t>(Mandatory) Age in years of the patient when the tumor was extracted. please note this must be a whole number, e.g. 45</t>
   </si>
   <si>
-    <t>patient_tumor_diagnosis_at_time_of_collection</t>
+    <t>patient tumor diagnosis at time of collection</t>
   </si>
   <si>
     <t>(Mandatory) Patient tumor diagnosis at time of collection for engraftment in pdx model or organoid/cell derivation. please use terminology from ncit ontology: https://www.ebi.ac.uk/ols/ontologies/ncit - please note in ncit ontology, usually the “cancer” concept is represented with “malignant neoplasm”example: “lung cancer” is “malignant lung neoplasm” (http://purl.obolibrary.org/obo/ncit_c7377). if precise diagnosis is unknown, please use "neoplasm" (http://purl.obolibrary.org/obo/ncit_c3262)</t>
   </si>
   <si>
-    <t>patient_tumor_primary_site</t>
+    <t>patient tumor primary site</t>
   </si>
   <si>
     <t>(Mandatory) Site of the primary tumor where cancer originates (may not correspond to the site of the collected tissue sample). please use ncit ontology, e.g. colon (http://purl.obolibrary.org/obo/ncit_c12382). if unknown please select ncit term: “not available” ( http://purl.obolibrary.org/obo/ncit_c126101)</t>
@@ -1872,7 +1857,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>was_the_pdx_model_humanised</t>
+    <t>was the PDX model humanised?</t>
   </si>
   <si>
     <t>(Recommended) If the sample origin is “engrafted tumor”, please indicate if the host strain, from which the sample was extracted, has undergone human immune system reconstitution, using “yes” (model humanised) or “no” (model not humanised). if the sample origin is “patient tumor” please select "not applicable".</t>
@@ -1887,7 +1872,7 @@
     <t>not available</t>
   </si>
   <si>
-    <t>patient_sex</t>
+    <t>patient sex</t>
   </si>
   <si>
     <t>(Mandatory) Sex of the patient from which the tumor was extracted. if sex is unknown please select “not available”</t>
@@ -3474,25 +3459,25 @@
         <v>304</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="150" customHeight="1">
@@ -3536,25 +3521,25 @@
         <v>305</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -3575,7 +3560,7 @@
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
-      <formula1>wasthepdxmodelhumanised</formula1>
+      <formula1>wasthePDXmodelhumanised</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
       <formula1>patientsex</formula1>
@@ -3587,7 +3572,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:T294"/>
+  <dimension ref="E1:T289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3610,10 +3595,10 @@
         <v>306</v>
       </c>
       <c r="S1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="T1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="5:20">
@@ -3633,10 +3618,10 @@
         <v>307</v>
       </c>
       <c r="S2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="T2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="5:20">
@@ -3653,10 +3638,10 @@
         <v>308</v>
       </c>
       <c r="S3" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="T3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="5:20">
@@ -5108,37 +5093,12 @@
     </row>
     <row r="288" spans="14:14">
       <c r="N288" t="s">
-        <v>593</v>
+        <v>276</v>
       </c>
     </row>
     <row r="289" spans="14:14">
       <c r="N289" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="290" spans="14:14">
-      <c r="N290" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="291" spans="14:14">
-      <c r="N291" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="292" spans="14:14">
-      <c r="N292" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="293" spans="14:14">
-      <c r="N293" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="294" spans="14:14">
-      <c r="N294" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -18,26 +18,26 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$P$1:$P$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="patientsex">'cv_sample'!$T$1:$T$3</definedName>
-    <definedName name="patienttumortype">'cv_sample'!$I$1:$I$4</definedName>
+    <definedName name="patientsex">'cv_sample'!$V$1:$V$3</definedName>
+    <definedName name="patienttumortype">'cv_sample'!$K$1:$K$4</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="samplematerial">'cv_sample'!$F$1:$F$7</definedName>
-    <definedName name="sampleorigin">'cv_sample'!$E$1:$E$7</definedName>
-    <definedName name="sampletaxonname">'cv_sample'!$G$1:$G$2</definedName>
+    <definedName name="samplematerial">'cv_sample'!$H$1:$H$7</definedName>
+    <definedName name="sampleorigin">'cv_sample'!$G$1:$G$7</definedName>
+    <definedName name="sampletaxonname">'cv_sample'!$I$1:$I$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="wasthePDXmodelhumanised">'cv_sample'!$S$1:$S$3</definedName>
+    <definedName name="wasthePDXmodelhumanised">'cv_sample'!$U$1:$U$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="617">
   <si>
     <t>alias</t>
   </si>
@@ -841,6 +841,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3409,7 +3421,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3418,7 +3430,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3432,22 +3444,22 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>300</v>
@@ -3459,10 +3471,10 @@
         <v>304</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>594</v>
+        <v>306</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>596</v>
+        <v>308</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>598</v>
@@ -3474,13 +3486,19 @@
         <v>602</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="150" customHeight="1">
+      <c r="U1" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3494,22 +3512,22 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>301</v>
@@ -3521,10 +3539,10 @@
         <v>305</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>595</v>
+        <v>307</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>597</v>
+        <v>309</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>599</v>
@@ -3536,33 +3554,39 @@
         <v>603</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>612</v>
+      <c r="U2" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>sampleorigin</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>samplematerial</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
       <formula1>sampletaxonname</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
       <formula1>patienttumortype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
       <formula1>wasthePDXmodelhumanised</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V101">
       <formula1>patientsex</formula1>
     </dataValidation>
   </dataValidations>
@@ -3572,1533 +3596,1533 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:T289"/>
+  <dimension ref="G1:V289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:20">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="7:22">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" t="s">
+        <v>297</v>
+      </c>
+      <c r="P1" t="s">
+        <v>310</v>
+      </c>
+      <c r="U1" t="s">
+        <v>608</v>
+      </c>
+      <c r="V1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="7:22">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P2" t="s">
+        <v>311</v>
+      </c>
+      <c r="U2" t="s">
+        <v>609</v>
+      </c>
+      <c r="V2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="7:22">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K3" t="s">
+        <v>299</v>
+      </c>
+      <c r="P3" t="s">
+        <v>312</v>
+      </c>
+      <c r="U3" t="s">
+        <v>595</v>
+      </c>
+      <c r="V3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="4" spans="7:22">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" t="s">
+        <v>280</v>
+      </c>
+      <c r="K4" t="s">
+        <v>280</v>
+      </c>
+      <c r="P4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="7:22">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="7:22">
+      <c r="G6" t="s">
         <v>279</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H6" t="s">
         <v>287</v>
       </c>
-      <c r="I1" t="s">
-        <v>293</v>
-      </c>
-      <c r="N1" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1" t="s">
-        <v>604</v>
-      </c>
-      <c r="T1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="2" spans="5:20">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="P6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="7:22">
+      <c r="G7" t="s">
         <v>280</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H7" t="s">
         <v>288</v>
       </c>
-      <c r="I2" t="s">
-        <v>294</v>
-      </c>
-      <c r="N2" t="s">
-        <v>307</v>
-      </c>
-      <c r="S2" t="s">
-        <v>605</v>
-      </c>
-      <c r="T2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="3" spans="5:20">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I3" t="s">
-        <v>295</v>
-      </c>
-      <c r="N3" t="s">
-        <v>308</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="P7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="7:22">
+      <c r="P8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="7:22">
+      <c r="P9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="7:22">
+      <c r="P10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="7:22">
+      <c r="P11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="7:22">
+      <c r="P12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="7:22">
+      <c r="P13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="7:22">
+      <c r="P14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="7:22">
+      <c r="P15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="7:22">
+      <c r="P16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="16:16">
+      <c r="P17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="16:16">
+      <c r="P18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="16:16">
+      <c r="P19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="16:16">
+      <c r="P20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="16:16">
+      <c r="P21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="16:16">
+      <c r="P22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="16:16">
+      <c r="P23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="16:16">
+      <c r="P24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="16:16">
+      <c r="P25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="16:16">
+      <c r="P26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="16:16">
+      <c r="P27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="16:16">
+      <c r="P28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="16:16">
+      <c r="P29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="16:16">
+      <c r="P30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="16:16">
+      <c r="P31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="16:16">
+      <c r="P32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="16:16">
+      <c r="P33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="16:16">
+      <c r="P34" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="16:16">
+      <c r="P35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="16:16">
+      <c r="P36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="16:16">
+      <c r="P37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="16:16">
+      <c r="P38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" spans="16:16">
+      <c r="P39" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="16:16">
+      <c r="P40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="16:16">
+      <c r="P41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="16:16">
+      <c r="P42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="16:16">
+      <c r="P43" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="16:16">
+      <c r="P44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="16:16">
+      <c r="P45" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="16:16">
+      <c r="P46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="16:16">
+      <c r="P47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48" spans="16:16">
+      <c r="P48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="16:16">
+      <c r="P49" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="16:16">
+      <c r="P50" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="16:16">
+      <c r="P51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="16:16">
+      <c r="P52" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53" spans="16:16">
+      <c r="P53" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="16:16">
+      <c r="P54" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="55" spans="16:16">
+      <c r="P55" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="56" spans="16:16">
+      <c r="P56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="57" spans="16:16">
+      <c r="P57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="16:16">
+      <c r="P58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="16:16">
+      <c r="P59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="16:16">
+      <c r="P60" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="16:16">
+      <c r="P61" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="16:16">
+      <c r="P62" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="16:16">
+      <c r="P63" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="64" spans="16:16">
+      <c r="P64" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="16:16">
+      <c r="P65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="16:16">
+      <c r="P66" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67" spans="16:16">
+      <c r="P67" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68" spans="16:16">
+      <c r="P68" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69" spans="16:16">
+      <c r="P69" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="70" spans="16:16">
+      <c r="P70" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="71" spans="16:16">
+      <c r="P71" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72" spans="16:16">
+      <c r="P72" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="73" spans="16:16">
+      <c r="P73" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="16:16">
+      <c r="P74" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="16:16">
+      <c r="P75" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="16:16">
+      <c r="P76" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="77" spans="16:16">
+      <c r="P77" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="78" spans="16:16">
+      <c r="P78" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="79" spans="16:16">
+      <c r="P79" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="80" spans="16:16">
+      <c r="P80" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="81" spans="16:16">
+      <c r="P81" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="16:16">
+      <c r="P82" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="16:16">
+      <c r="P83" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="84" spans="16:16">
+      <c r="P84" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="85" spans="16:16">
+      <c r="P85" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="16:16">
+      <c r="P86" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="87" spans="16:16">
+      <c r="P87" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="88" spans="16:16">
+      <c r="P88" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="89" spans="16:16">
+      <c r="P89" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="16:16">
+      <c r="P90" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="91" spans="16:16">
+      <c r="P91" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="16:16">
+      <c r="P92" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="93" spans="16:16">
+      <c r="P93" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="94" spans="16:16">
+      <c r="P94" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="95" spans="16:16">
+      <c r="P95" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" spans="16:16">
+      <c r="P96" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="97" spans="16:16">
+      <c r="P97" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="98" spans="16:16">
+      <c r="P98" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="99" spans="16:16">
+      <c r="P99" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="100" spans="16:16">
+      <c r="P100" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="101" spans="16:16">
+      <c r="P101" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="16:16">
+      <c r="P102" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="103" spans="16:16">
+      <c r="P103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="16:16">
+      <c r="P104" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="105" spans="16:16">
+      <c r="P105" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106" spans="16:16">
+      <c r="P106" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="107" spans="16:16">
+      <c r="P107" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="108" spans="16:16">
+      <c r="P108" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="109" spans="16:16">
+      <c r="P109" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="110" spans="16:16">
+      <c r="P110" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="111" spans="16:16">
+      <c r="P111" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="112" spans="16:16">
+      <c r="P112" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="113" spans="16:16">
+      <c r="P113" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="114" spans="16:16">
+      <c r="P114" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="115" spans="16:16">
+      <c r="P115" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="116" spans="16:16">
+      <c r="P116" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="117" spans="16:16">
+      <c r="P117" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="118" spans="16:16">
+      <c r="P118" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="119" spans="16:16">
+      <c r="P119" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="120" spans="16:16">
+      <c r="P120" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="121" spans="16:16">
+      <c r="P121" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="122" spans="16:16">
+      <c r="P122" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="123" spans="16:16">
+      <c r="P123" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="124" spans="16:16">
+      <c r="P124" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="125" spans="16:16">
+      <c r="P125" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="126" spans="16:16">
+      <c r="P126" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="127" spans="16:16">
+      <c r="P127" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="128" spans="16:16">
+      <c r="P128" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="129" spans="16:16">
+      <c r="P129" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="130" spans="16:16">
+      <c r="P130" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="131" spans="16:16">
+      <c r="P131" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="132" spans="16:16">
+      <c r="P132" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="133" spans="16:16">
+      <c r="P133" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="134" spans="16:16">
+      <c r="P134" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="135" spans="16:16">
+      <c r="P135" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="136" spans="16:16">
+      <c r="P136" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="137" spans="16:16">
+      <c r="P137" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="138" spans="16:16">
+      <c r="P138" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="139" spans="16:16">
+      <c r="P139" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="140" spans="16:16">
+      <c r="P140" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="141" spans="16:16">
+      <c r="P141" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="142" spans="16:16">
+      <c r="P142" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="143" spans="16:16">
+      <c r="P143" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="144" spans="16:16">
+      <c r="P144" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="145" spans="16:16">
+      <c r="P145" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="146" spans="16:16">
+      <c r="P146" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="147" spans="16:16">
+      <c r="P147" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="148" spans="16:16">
+      <c r="P148" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="149" spans="16:16">
+      <c r="P149" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="150" spans="16:16">
+      <c r="P150" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="151" spans="16:16">
+      <c r="P151" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="152" spans="16:16">
+      <c r="P152" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="153" spans="16:16">
+      <c r="P153" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="16:16">
+      <c r="P154" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" spans="16:16">
+      <c r="P155" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="156" spans="16:16">
+      <c r="P156" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="157" spans="16:16">
+      <c r="P157" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="158" spans="16:16">
+      <c r="P158" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="159" spans="16:16">
+      <c r="P159" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="160" spans="16:16">
+      <c r="P160" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="161" spans="16:16">
+      <c r="P161" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="162" spans="16:16">
+      <c r="P162" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="163" spans="16:16">
+      <c r="P163" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="164" spans="16:16">
+      <c r="P164" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="165" spans="16:16">
+      <c r="P165" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="166" spans="16:16">
+      <c r="P166" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="167" spans="16:16">
+      <c r="P167" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="168" spans="16:16">
+      <c r="P168" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="169" spans="16:16">
+      <c r="P169" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="170" spans="16:16">
+      <c r="P170" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="171" spans="16:16">
+      <c r="P171" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="172" spans="16:16">
+      <c r="P172" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="173" spans="16:16">
+      <c r="P173" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="174" spans="16:16">
+      <c r="P174" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="175" spans="16:16">
+      <c r="P175" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="176" spans="16:16">
+      <c r="P176" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="177" spans="16:16">
+      <c r="P177" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="178" spans="16:16">
+      <c r="P178" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="179" spans="16:16">
+      <c r="P179" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="180" spans="16:16">
+      <c r="P180" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="181" spans="16:16">
+      <c r="P181" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="182" spans="16:16">
+      <c r="P182" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="183" spans="16:16">
+      <c r="P183" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="184" spans="16:16">
+      <c r="P184" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="185" spans="16:16">
+      <c r="P185" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="186" spans="16:16">
+      <c r="P186" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="187" spans="16:16">
+      <c r="P187" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="188" spans="16:16">
+      <c r="P188" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="189" spans="16:16">
+      <c r="P189" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="190" spans="16:16">
+      <c r="P190" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="191" spans="16:16">
+      <c r="P191" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="192" spans="16:16">
+      <c r="P192" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="193" spans="16:16">
+      <c r="P193" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="194" spans="16:16">
+      <c r="P194" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="195" spans="16:16">
+      <c r="P195" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="196" spans="16:16">
+      <c r="P196" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="197" spans="16:16">
+      <c r="P197" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="198" spans="16:16">
+      <c r="P198" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="199" spans="16:16">
+      <c r="P199" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="200" spans="16:16">
+      <c r="P200" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="201" spans="16:16">
+      <c r="P201" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="202" spans="16:16">
+      <c r="P202" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="203" spans="16:16">
+      <c r="P203" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="204" spans="16:16">
+      <c r="P204" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="205" spans="16:16">
+      <c r="P205" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="206" spans="16:16">
+      <c r="P206" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="207" spans="16:16">
+      <c r="P207" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="208" spans="16:16">
+      <c r="P208" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="209" spans="16:16">
+      <c r="P209" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="210" spans="16:16">
+      <c r="P210" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="211" spans="16:16">
+      <c r="P211" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="212" spans="16:16">
+      <c r="P212" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="213" spans="16:16">
+      <c r="P213" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="214" spans="16:16">
+      <c r="P214" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="215" spans="16:16">
+      <c r="P215" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="216" spans="16:16">
+      <c r="P216" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="217" spans="16:16">
+      <c r="P217" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="218" spans="16:16">
+      <c r="P218" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="219" spans="16:16">
+      <c r="P219" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="220" spans="16:16">
+      <c r="P220" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="221" spans="16:16">
+      <c r="P221" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="222" spans="16:16">
+      <c r="P222" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="223" spans="16:16">
+      <c r="P223" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="224" spans="16:16">
+      <c r="P224" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="225" spans="16:16">
+      <c r="P225" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="226" spans="16:16">
+      <c r="P226" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="227" spans="16:16">
+      <c r="P227" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="228" spans="16:16">
+      <c r="P228" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="229" spans="16:16">
+      <c r="P229" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="230" spans="16:16">
+      <c r="P230" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="231" spans="16:16">
+      <c r="P231" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="232" spans="16:16">
+      <c r="P232" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="233" spans="16:16">
+      <c r="P233" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="234" spans="16:16">
+      <c r="P234" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="235" spans="16:16">
+      <c r="P235" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="236" spans="16:16">
+      <c r="P236" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="237" spans="16:16">
+      <c r="P237" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="238" spans="16:16">
+      <c r="P238" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="239" spans="16:16">
+      <c r="P239" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="240" spans="16:16">
+      <c r="P240" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="241" spans="16:16">
+      <c r="P241" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="242" spans="16:16">
+      <c r="P242" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="243" spans="16:16">
+      <c r="P243" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="244" spans="16:16">
+      <c r="P244" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="245" spans="16:16">
+      <c r="P245" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="246" spans="16:16">
+      <c r="P246" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="247" spans="16:16">
+      <c r="P247" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="248" spans="16:16">
+      <c r="P248" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="249" spans="16:16">
+      <c r="P249" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="250" spans="16:16">
+      <c r="P250" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="251" spans="16:16">
+      <c r="P251" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="252" spans="16:16">
+      <c r="P252" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="253" spans="16:16">
+      <c r="P253" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="254" spans="16:16">
+      <c r="P254" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="255" spans="16:16">
+      <c r="P255" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="256" spans="16:16">
+      <c r="P256" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="257" spans="16:16">
+      <c r="P257" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="258" spans="16:16">
+      <c r="P258" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="259" spans="16:16">
+      <c r="P259" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="260" spans="16:16">
+      <c r="P260" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="261" spans="16:16">
+      <c r="P261" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="262" spans="16:16">
+      <c r="P262" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="263" spans="16:16">
+      <c r="P263" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="264" spans="16:16">
+      <c r="P264" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="265" spans="16:16">
+      <c r="P265" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="266" spans="16:16">
+      <c r="P266" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="267" spans="16:16">
+      <c r="P267" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="268" spans="16:16">
+      <c r="P268" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="269" spans="16:16">
+      <c r="P269" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="270" spans="16:16">
+      <c r="P270" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="271" spans="16:16">
+      <c r="P271" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="272" spans="16:16">
+      <c r="P272" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="273" spans="16:16">
+      <c r="P273" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="274" spans="16:16">
+      <c r="P274" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="275" spans="16:16">
+      <c r="P275" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="276" spans="16:16">
+      <c r="P276" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="277" spans="16:16">
+      <c r="P277" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="278" spans="16:16">
+      <c r="P278" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="279" spans="16:16">
+      <c r="P279" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="280" spans="16:16">
+      <c r="P280" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="281" spans="16:16">
+      <c r="P281" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="282" spans="16:16">
+      <c r="P282" t="s">
         <v>591</v>
       </c>
-      <c r="T3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="4" spans="5:20">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" t="s">
-        <v>276</v>
-      </c>
-      <c r="I4" t="s">
-        <v>276</v>
-      </c>
-      <c r="N4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="5:20">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" t="s">
-        <v>282</v>
-      </c>
-      <c r="N5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="5:20">
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" t="s">
-        <v>283</v>
-      </c>
-      <c r="N6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="5:20">
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F7" t="s">
-        <v>284</v>
-      </c>
-      <c r="N7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="5:20">
-      <c r="N8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="5:20">
-      <c r="N9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="5:20">
-      <c r="N10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="5:20">
-      <c r="N11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="5:20">
-      <c r="N12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="5:20">
-      <c r="N13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="5:20">
-      <c r="N14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="5:20">
-      <c r="N15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="5:20">
-      <c r="N16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14">
-      <c r="N17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="14:14">
-      <c r="N18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="14:14">
-      <c r="N19" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14">
-      <c r="N20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="14:14">
-      <c r="N21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="14:14">
-      <c r="N22" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="14:14">
-      <c r="N23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="14:14">
-      <c r="N24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="14:14">
-      <c r="N25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="14:14">
-      <c r="N26" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="27" spans="14:14">
-      <c r="N27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="28" spans="14:14">
-      <c r="N28" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29" spans="14:14">
-      <c r="N29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30" spans="14:14">
-      <c r="N30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="14:14">
-      <c r="N31" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32" spans="14:14">
-      <c r="N32" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33" spans="14:14">
-      <c r="N33" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="34" spans="14:14">
-      <c r="N34" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" spans="14:14">
-      <c r="N35" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="14:14">
-      <c r="N36" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="37" spans="14:14">
-      <c r="N37" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="14:14">
-      <c r="N38" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="39" spans="14:14">
-      <c r="N39" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="14:14">
-      <c r="N40" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41" spans="14:14">
-      <c r="N41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="42" spans="14:14">
-      <c r="N42" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="43" spans="14:14">
-      <c r="N43" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="44" spans="14:14">
-      <c r="N44" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="45" spans="14:14">
-      <c r="N45" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="46" spans="14:14">
-      <c r="N46" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="47" spans="14:14">
-      <c r="N47" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="48" spans="14:14">
-      <c r="N48" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="49" spans="14:14">
-      <c r="N49" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="50" spans="14:14">
-      <c r="N50" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="51" spans="14:14">
-      <c r="N51" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="52" spans="14:14">
-      <c r="N52" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="53" spans="14:14">
-      <c r="N53" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="54" spans="14:14">
-      <c r="N54" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="55" spans="14:14">
-      <c r="N55" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="14:14">
-      <c r="N56" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="57" spans="14:14">
-      <c r="N57" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="58" spans="14:14">
-      <c r="N58" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="59" spans="14:14">
-      <c r="N59" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="60" spans="14:14">
-      <c r="N60" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="61" spans="14:14">
-      <c r="N61" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="62" spans="14:14">
-      <c r="N62" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="63" spans="14:14">
-      <c r="N63" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="64" spans="14:14">
-      <c r="N64" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14">
-      <c r="N65" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="66" spans="14:14">
-      <c r="N66" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="67" spans="14:14">
-      <c r="N67" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="68" spans="14:14">
-      <c r="N68" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="69" spans="14:14">
-      <c r="N69" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="70" spans="14:14">
-      <c r="N70" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="71" spans="14:14">
-      <c r="N71" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="72" spans="14:14">
-      <c r="N72" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="73" spans="14:14">
-      <c r="N73" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="74" spans="14:14">
-      <c r="N74" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="75" spans="14:14">
-      <c r="N75" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="76" spans="14:14">
-      <c r="N76" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="77" spans="14:14">
-      <c r="N77" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="78" spans="14:14">
-      <c r="N78" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="79" spans="14:14">
-      <c r="N79" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="80" spans="14:14">
-      <c r="N80" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="81" spans="14:14">
-      <c r="N81" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="82" spans="14:14">
-      <c r="N82" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="83" spans="14:14">
-      <c r="N83" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="84" spans="14:14">
-      <c r="N84" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="85" spans="14:14">
-      <c r="N85" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="86" spans="14:14">
-      <c r="N86" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="87" spans="14:14">
-      <c r="N87" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="88" spans="14:14">
-      <c r="N88" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="89" spans="14:14">
-      <c r="N89" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="90" spans="14:14">
-      <c r="N90" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="91" spans="14:14">
-      <c r="N91" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="92" spans="14:14">
-      <c r="N92" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="93" spans="14:14">
-      <c r="N93" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="94" spans="14:14">
-      <c r="N94" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="95" spans="14:14">
-      <c r="N95" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="96" spans="14:14">
-      <c r="N96" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="97" spans="14:14">
-      <c r="N97" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="98" spans="14:14">
-      <c r="N98" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="99" spans="14:14">
-      <c r="N99" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="100" spans="14:14">
-      <c r="N100" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="101" spans="14:14">
-      <c r="N101" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="102" spans="14:14">
-      <c r="N102" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="103" spans="14:14">
-      <c r="N103" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="104" spans="14:14">
-      <c r="N104" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="105" spans="14:14">
-      <c r="N105" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="106" spans="14:14">
-      <c r="N106" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="107" spans="14:14">
-      <c r="N107" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="108" spans="14:14">
-      <c r="N108" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="109" spans="14:14">
-      <c r="N109" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="110" spans="14:14">
-      <c r="N110" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="111" spans="14:14">
-      <c r="N111" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="112" spans="14:14">
-      <c r="N112" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="113" spans="14:14">
-      <c r="N113" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="114" spans="14:14">
-      <c r="N114" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="115" spans="14:14">
-      <c r="N115" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="116" spans="14:14">
-      <c r="N116" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="117" spans="14:14">
-      <c r="N117" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="118" spans="14:14">
-      <c r="N118" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="119" spans="14:14">
-      <c r="N119" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="120" spans="14:14">
-      <c r="N120" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="121" spans="14:14">
-      <c r="N121" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="122" spans="14:14">
-      <c r="N122" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="123" spans="14:14">
-      <c r="N123" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="124" spans="14:14">
-      <c r="N124" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="125" spans="14:14">
-      <c r="N125" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="126" spans="14:14">
-      <c r="N126" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="127" spans="14:14">
-      <c r="N127" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="128" spans="14:14">
-      <c r="N128" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="129" spans="14:14">
-      <c r="N129" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="130" spans="14:14">
-      <c r="N130" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="131" spans="14:14">
-      <c r="N131" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="132" spans="14:14">
-      <c r="N132" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="133" spans="14:14">
-      <c r="N133" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="134" spans="14:14">
-      <c r="N134" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="135" spans="14:14">
-      <c r="N135" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="136" spans="14:14">
-      <c r="N136" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="137" spans="14:14">
-      <c r="N137" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="138" spans="14:14">
-      <c r="N138" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="139" spans="14:14">
-      <c r="N139" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="140" spans="14:14">
-      <c r="N140" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="141" spans="14:14">
-      <c r="N141" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="142" spans="14:14">
-      <c r="N142" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="143" spans="14:14">
-      <c r="N143" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="144" spans="14:14">
-      <c r="N144" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="145" spans="14:14">
-      <c r="N145" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="146" spans="14:14">
-      <c r="N146" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="147" spans="14:14">
-      <c r="N147" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="148" spans="14:14">
-      <c r="N148" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="149" spans="14:14">
-      <c r="N149" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="150" spans="14:14">
-      <c r="N150" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="151" spans="14:14">
-      <c r="N151" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="152" spans="14:14">
-      <c r="N152" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="153" spans="14:14">
-      <c r="N153" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="154" spans="14:14">
-      <c r="N154" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="155" spans="14:14">
-      <c r="N155" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="156" spans="14:14">
-      <c r="N156" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="157" spans="14:14">
-      <c r="N157" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="158" spans="14:14">
-      <c r="N158" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="159" spans="14:14">
-      <c r="N159" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="160" spans="14:14">
-      <c r="N160" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="161" spans="14:14">
-      <c r="N161" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="162" spans="14:14">
-      <c r="N162" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="163" spans="14:14">
-      <c r="N163" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="164" spans="14:14">
-      <c r="N164" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="165" spans="14:14">
-      <c r="N165" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="166" spans="14:14">
-      <c r="N166" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="167" spans="14:14">
-      <c r="N167" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="168" spans="14:14">
-      <c r="N168" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="169" spans="14:14">
-      <c r="N169" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="170" spans="14:14">
-      <c r="N170" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="171" spans="14:14">
-      <c r="N171" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="172" spans="14:14">
-      <c r="N172" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="173" spans="14:14">
-      <c r="N173" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="174" spans="14:14">
-      <c r="N174" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="175" spans="14:14">
-      <c r="N175" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="176" spans="14:14">
-      <c r="N176" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="177" spans="14:14">
-      <c r="N177" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="178" spans="14:14">
-      <c r="N178" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="179" spans="14:14">
-      <c r="N179" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="180" spans="14:14">
-      <c r="N180" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="181" spans="14:14">
-      <c r="N181" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="182" spans="14:14">
-      <c r="N182" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="183" spans="14:14">
-      <c r="N183" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="184" spans="14:14">
-      <c r="N184" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="185" spans="14:14">
-      <c r="N185" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="186" spans="14:14">
-      <c r="N186" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="187" spans="14:14">
-      <c r="N187" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="188" spans="14:14">
-      <c r="N188" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="189" spans="14:14">
-      <c r="N189" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="190" spans="14:14">
-      <c r="N190" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="191" spans="14:14">
-      <c r="N191" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="192" spans="14:14">
-      <c r="N192" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="193" spans="14:14">
-      <c r="N193" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="194" spans="14:14">
-      <c r="N194" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="195" spans="14:14">
-      <c r="N195" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="196" spans="14:14">
-      <c r="N196" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="197" spans="14:14">
-      <c r="N197" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="198" spans="14:14">
-      <c r="N198" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="199" spans="14:14">
-      <c r="N199" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="200" spans="14:14">
-      <c r="N200" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="201" spans="14:14">
-      <c r="N201" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="202" spans="14:14">
-      <c r="N202" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="203" spans="14:14">
-      <c r="N203" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="204" spans="14:14">
-      <c r="N204" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="205" spans="14:14">
-      <c r="N205" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="206" spans="14:14">
-      <c r="N206" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="207" spans="14:14">
-      <c r="N207" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="208" spans="14:14">
-      <c r="N208" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="209" spans="14:14">
-      <c r="N209" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="210" spans="14:14">
-      <c r="N210" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="211" spans="14:14">
-      <c r="N211" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="212" spans="14:14">
-      <c r="N212" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="213" spans="14:14">
-      <c r="N213" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="214" spans="14:14">
-      <c r="N214" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="215" spans="14:14">
-      <c r="N215" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="216" spans="14:14">
-      <c r="N216" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="217" spans="14:14">
-      <c r="N217" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="218" spans="14:14">
-      <c r="N218" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="219" spans="14:14">
-      <c r="N219" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="220" spans="14:14">
-      <c r="N220" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="221" spans="14:14">
-      <c r="N221" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="222" spans="14:14">
-      <c r="N222" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="223" spans="14:14">
-      <c r="N223" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="224" spans="14:14">
-      <c r="N224" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="225" spans="14:14">
-      <c r="N225" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="226" spans="14:14">
-      <c r="N226" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="227" spans="14:14">
-      <c r="N227" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="228" spans="14:14">
-      <c r="N228" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="229" spans="14:14">
-      <c r="N229" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="230" spans="14:14">
-      <c r="N230" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="231" spans="14:14">
-      <c r="N231" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="232" spans="14:14">
-      <c r="N232" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="233" spans="14:14">
-      <c r="N233" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="234" spans="14:14">
-      <c r="N234" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="235" spans="14:14">
-      <c r="N235" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="236" spans="14:14">
-      <c r="N236" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="237" spans="14:14">
-      <c r="N237" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="238" spans="14:14">
-      <c r="N238" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="239" spans="14:14">
-      <c r="N239" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="240" spans="14:14">
-      <c r="N240" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="241" spans="14:14">
-      <c r="N241" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="242" spans="14:14">
-      <c r="N242" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="243" spans="14:14">
-      <c r="N243" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="244" spans="14:14">
-      <c r="N244" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="245" spans="14:14">
-      <c r="N245" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="246" spans="14:14">
-      <c r="N246" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="247" spans="14:14">
-      <c r="N247" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="248" spans="14:14">
-      <c r="N248" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="249" spans="14:14">
-      <c r="N249" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="250" spans="14:14">
-      <c r="N250" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="251" spans="14:14">
-      <c r="N251" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="252" spans="14:14">
-      <c r="N252" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="253" spans="14:14">
-      <c r="N253" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="254" spans="14:14">
-      <c r="N254" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="255" spans="14:14">
-      <c r="N255" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="256" spans="14:14">
-      <c r="N256" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="257" spans="14:14">
-      <c r="N257" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="258" spans="14:14">
-      <c r="N258" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="259" spans="14:14">
-      <c r="N259" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="260" spans="14:14">
-      <c r="N260" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="261" spans="14:14">
-      <c r="N261" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="262" spans="14:14">
-      <c r="N262" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="263" spans="14:14">
-      <c r="N263" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="264" spans="14:14">
-      <c r="N264" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="265" spans="14:14">
-      <c r="N265" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="266" spans="14:14">
-      <c r="N266" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="267" spans="14:14">
-      <c r="N267" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="268" spans="14:14">
-      <c r="N268" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="269" spans="14:14">
-      <c r="N269" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="270" spans="14:14">
-      <c r="N270" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="271" spans="14:14">
-      <c r="N271" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="272" spans="14:14">
-      <c r="N272" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="273" spans="14:14">
-      <c r="N273" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="274" spans="14:14">
-      <c r="N274" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="275" spans="14:14">
-      <c r="N275" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="276" spans="14:14">
-      <c r="N276" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="277" spans="14:14">
-      <c r="N277" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="278" spans="14:14">
-      <c r="N278" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="279" spans="14:14">
-      <c r="N279" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="280" spans="14:14">
-      <c r="N280" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="281" spans="14:14">
-      <c r="N281" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="282" spans="14:14">
-      <c r="N282" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="283" spans="14:14">
-      <c r="N283" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="284" spans="14:14">
-      <c r="N284" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="285" spans="14:14">
-      <c r="N285" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="286" spans="14:14">
-      <c r="N286" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="287" spans="14:14">
-      <c r="N287" t="s">
+    </row>
+    <row r="283" spans="16:16">
+      <c r="P283" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="288" spans="14:14">
-      <c r="N288" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="289" spans="14:14">
-      <c r="N289" t="s">
+    <row r="284" spans="16:16">
+      <c r="P284" t="s">
         <v>593</v>
+      </c>
+    </row>
+    <row r="285" spans="16:16">
+      <c r="P285" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="286" spans="16:16">
+      <c r="P286" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="287" spans="16:16">
+      <c r="P287" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="288" spans="16:16">
+      <c r="P288" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="289" spans="16:16">
+      <c r="P289" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000051/metadata_template_ERC000051.xlsx
+++ b/templates/ERC000051/metadata_template_ERC000051.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$P$1:$P$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$P$1:$P$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="622">
   <si>
     <t>alias</t>
   </si>
@@ -1182,9 +1182,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1203,6 +1200,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1404,6 +1404,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1413,9 +1416,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1455,7 +1455,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1524,6 +1524,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1599,6 +1602,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1620,6 +1626,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1665,6 +1674,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1677,6 +1689,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1686,9 +1701,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1713,6 +1725,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1773,10 +1788,10 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
   </si>
   <si>
     <t>Wallis and Futuna</t>
@@ -3477,25 +3492,25 @@
         <v>308</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="150" customHeight="1">
@@ -3545,25 +3560,25 @@
         <v>309</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3611,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:V289"/>
+  <dimension ref="G1:V294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3619,10 +3634,10 @@
         <v>310</v>
       </c>
       <c r="U1" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="V1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="7:22">
@@ -3642,10 +3657,10 @@
         <v>311</v>
       </c>
       <c r="U2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="V2" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="7:22">
@@ -3662,10 +3677,10 @@
         <v>312</v>
       </c>
       <c r="U3" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="V3" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="7:22">
@@ -5117,12 +5132,37 @@
     </row>
     <row r="288" spans="16:16">
       <c r="P288" t="s">
-        <v>280</v>
+        <v>597</v>
       </c>
     </row>
     <row r="289" spans="16:16">
       <c r="P289" t="s">
-        <v>597</v>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="290" spans="16:16">
+      <c r="P290" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="291" spans="16:16">
+      <c r="P291" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="292" spans="16:16">
+      <c r="P292" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="293" spans="16:16">
+      <c r="P293" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="294" spans="16:16">
+      <c r="P294" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
